--- a/datos/CLASIFICACIONES.xlsx
+++ b/datos/CLASIFICACIONES.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renato\GitHub\scn_scae_gt\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E81D6C8-E935-49F9-ACBE-BAE74739270F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A229313-B91E-48B2-A81E-DB3AE68F97D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{C22BA8DC-7785-47D2-AF50-A04A94E3F417}"/>
+    <workbookView xWindow="711" yWindow="-103" windowWidth="21335" windowHeight="12549" activeTab="5" xr2:uid="{C22BA8DC-7785-47D2-AF50-A04A94E3F417}"/>
   </bookViews>
   <sheets>
     <sheet name="columnas" sheetId="3" r:id="rId1"/>
     <sheet name="filas" sheetId="1" r:id="rId2"/>
     <sheet name="ntg2" sheetId="5" r:id="rId3"/>
     <sheet name="npg" sheetId="6" r:id="rId4"/>
-    <sheet name="naeg" sheetId="4" r:id="rId5"/>
-    <sheet name="areas_filas" sheetId="7" r:id="rId6"/>
-    <sheet name="areas_columnas" sheetId="8" r:id="rId7"/>
+    <sheet name="energia" sheetId="9" r:id="rId5"/>
+    <sheet name="cuadros" sheetId="10" r:id="rId6"/>
+    <sheet name="naeg" sheetId="4" r:id="rId7"/>
+    <sheet name="areas_filas" sheetId="7" r:id="rId8"/>
+    <sheet name="areas_columnas" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2239" uniqueCount="1368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2898" uniqueCount="1375">
   <si>
     <t>P0101</t>
   </si>
@@ -3287,15 +3289,6 @@
     <t>Actividades de asociaciones que sirven  a los hogares</t>
   </si>
   <si>
-    <t>idNAEG</t>
-  </si>
-  <si>
-    <t>NAEG</t>
-  </si>
-  <si>
-    <t>idNTG2</t>
-  </si>
-  <si>
     <t>uc001</t>
   </si>
   <si>
@@ -3818,9 +3811,6 @@
     <t>AE127</t>
   </si>
   <si>
-    <t>NTG2</t>
-  </si>
-  <si>
     <t>P11</t>
   </si>
   <si>
@@ -4058,12 +4048,6 @@
     <t>Márgenes de distribución</t>
   </si>
   <si>
-    <t>idNTG</t>
-  </si>
-  <si>
-    <t>NTG</t>
-  </si>
-  <si>
     <t>Consumo intermedio de mercado</t>
   </si>
   <si>
@@ -4146,6 +4130,45 @@
   </si>
   <si>
     <t>id_columna</t>
+  </si>
+  <si>
+    <t>energia</t>
+  </si>
+  <si>
+    <t>id_energia</t>
+  </si>
+  <si>
+    <t>No energético</t>
+  </si>
+  <si>
+    <t>Energía primaria</t>
+  </si>
+  <si>
+    <t>Energía secundaria</t>
+  </si>
+  <si>
+    <t>naeg</t>
+  </si>
+  <si>
+    <t>ntg2</t>
+  </si>
+  <si>
+    <t>id_ntg</t>
+  </si>
+  <si>
+    <t>ntg</t>
+  </si>
+  <si>
+    <t>id_cuadro</t>
+  </si>
+  <si>
+    <t>cuadro</t>
+  </si>
+  <si>
+    <t>Oferta</t>
+  </si>
+  <si>
+    <t>Utilización</t>
   </si>
 </sst>
 </file>
@@ -4167,12 +4190,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -4187,8 +4216,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4505,7 +4535,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929882BB-EC53-415D-8756-EE638CA8DF7A}">
   <dimension ref="A1:D333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -4517,16 +4549,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
       <c r="B1" t="s">
-        <v>1347</v>
+        <v>1341</v>
       </c>
       <c r="C1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D1" t="s">
         <v>1348</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1354</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -4534,7 +4566,7 @@
         <v>814</v>
       </c>
       <c r="B2" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C2" t="s">
         <v>660</v>
@@ -4548,7 +4580,7 @@
         <v>815</v>
       </c>
       <c r="B3" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C3" t="s">
         <v>661</v>
@@ -4562,7 +4594,7 @@
         <v>816</v>
       </c>
       <c r="B4" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C4" t="s">
         <v>663</v>
@@ -4576,7 +4608,7 @@
         <v>817</v>
       </c>
       <c r="B5" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C5" t="s">
         <v>664</v>
@@ -4590,7 +4622,7 @@
         <v>818</v>
       </c>
       <c r="B6" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C6" t="s">
         <v>666</v>
@@ -4604,7 +4636,7 @@
         <v>819</v>
       </c>
       <c r="B7" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C7" t="s">
         <v>667</v>
@@ -4618,7 +4650,7 @@
         <v>820</v>
       </c>
       <c r="B8" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C8" t="s">
         <v>669</v>
@@ -4632,7 +4664,7 @@
         <v>821</v>
       </c>
       <c r="B9" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C9" t="s">
         <v>671</v>
@@ -4646,7 +4678,7 @@
         <v>822</v>
       </c>
       <c r="B10" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C10" t="s">
         <v>672</v>
@@ -4660,7 +4692,7 @@
         <v>823</v>
       </c>
       <c r="B11" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C11" t="s">
         <v>674</v>
@@ -4674,7 +4706,7 @@
         <v>824</v>
       </c>
       <c r="B12" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C12" t="s">
         <v>676</v>
@@ -4688,7 +4720,7 @@
         <v>825</v>
       </c>
       <c r="B13" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C13" t="s">
         <v>677</v>
@@ -4702,7 +4734,7 @@
         <v>826</v>
       </c>
       <c r="B14" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C14" t="s">
         <v>678</v>
@@ -4716,7 +4748,7 @@
         <v>827</v>
       </c>
       <c r="B15" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C15" t="s">
         <v>680</v>
@@ -4730,7 +4762,7 @@
         <v>828</v>
       </c>
       <c r="B16" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C16" t="s">
         <v>681</v>
@@ -4744,7 +4776,7 @@
         <v>829</v>
       </c>
       <c r="B17" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C17" t="s">
         <v>682</v>
@@ -4758,7 +4790,7 @@
         <v>830</v>
       </c>
       <c r="B18" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C18" t="s">
         <v>683</v>
@@ -4772,7 +4804,7 @@
         <v>831</v>
       </c>
       <c r="B19" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C19" t="s">
         <v>684</v>
@@ -4786,7 +4818,7 @@
         <v>832</v>
       </c>
       <c r="B20" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C20" t="s">
         <v>686</v>
@@ -4800,7 +4832,7 @@
         <v>833</v>
       </c>
       <c r="B21" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C21" t="s">
         <v>688</v>
@@ -4814,7 +4846,7 @@
         <v>834</v>
       </c>
       <c r="B22" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C22" t="s">
         <v>689</v>
@@ -4828,7 +4860,7 @@
         <v>835</v>
       </c>
       <c r="B23" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C23" t="s">
         <v>691</v>
@@ -4842,7 +4874,7 @@
         <v>836</v>
       </c>
       <c r="B24" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C24" t="s">
         <v>692</v>
@@ -4856,7 +4888,7 @@
         <v>837</v>
       </c>
       <c r="B25" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C25" t="s">
         <v>694</v>
@@ -4870,7 +4902,7 @@
         <v>838</v>
       </c>
       <c r="B26" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C26" t="s">
         <v>696</v>
@@ -4884,7 +4916,7 @@
         <v>839</v>
       </c>
       <c r="B27" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C27" t="s">
         <v>698</v>
@@ -4898,7 +4930,7 @@
         <v>840</v>
       </c>
       <c r="B28" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C28" t="s">
         <v>700</v>
@@ -4912,7 +4944,7 @@
         <v>841</v>
       </c>
       <c r="B29" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C29" t="s">
         <v>702</v>
@@ -4926,7 +4958,7 @@
         <v>842</v>
       </c>
       <c r="B30" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C30" t="s">
         <v>704</v>
@@ -4940,7 +4972,7 @@
         <v>843</v>
       </c>
       <c r="B31" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C31" t="s">
         <v>706</v>
@@ -4954,7 +4986,7 @@
         <v>844</v>
       </c>
       <c r="B32" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C32" t="s">
         <v>707</v>
@@ -4968,7 +5000,7 @@
         <v>845</v>
       </c>
       <c r="B33" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C33" t="s">
         <v>709</v>
@@ -4982,7 +5014,7 @@
         <v>846</v>
       </c>
       <c r="B34" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C34" t="s">
         <v>711</v>
@@ -4996,7 +5028,7 @@
         <v>847</v>
       </c>
       <c r="B35" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C35" t="s">
         <v>713</v>
@@ -5010,7 +5042,7 @@
         <v>848</v>
       </c>
       <c r="B36" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C36" t="s">
         <v>714</v>
@@ -5024,7 +5056,7 @@
         <v>849</v>
       </c>
       <c r="B37" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C37" t="s">
         <v>716</v>
@@ -5038,7 +5070,7 @@
         <v>850</v>
       </c>
       <c r="B38" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C38" t="s">
         <v>717</v>
@@ -5052,7 +5084,7 @@
         <v>851</v>
       </c>
       <c r="B39" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C39" t="s">
         <v>718</v>
@@ -5066,7 +5098,7 @@
         <v>852</v>
       </c>
       <c r="B40" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C40" t="s">
         <v>719</v>
@@ -5080,7 +5112,7 @@
         <v>853</v>
       </c>
       <c r="B41" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C41" t="s">
         <v>721</v>
@@ -5094,7 +5126,7 @@
         <v>854</v>
       </c>
       <c r="B42" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C42" t="s">
         <v>722</v>
@@ -5108,7 +5140,7 @@
         <v>855</v>
       </c>
       <c r="B43" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C43" t="s">
         <v>723</v>
@@ -5122,7 +5154,7 @@
         <v>856</v>
       </c>
       <c r="B44" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C44" t="s">
         <v>725</v>
@@ -5136,7 +5168,7 @@
         <v>857</v>
       </c>
       <c r="B45" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C45" t="s">
         <v>726</v>
@@ -5150,7 +5182,7 @@
         <v>858</v>
       </c>
       <c r="B46" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C46" t="s">
         <v>727</v>
@@ -5164,7 +5196,7 @@
         <v>859</v>
       </c>
       <c r="B47" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C47" t="s">
         <v>729</v>
@@ -5178,7 +5210,7 @@
         <v>860</v>
       </c>
       <c r="B48" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C48" t="s">
         <v>731</v>
@@ -5192,7 +5224,7 @@
         <v>861</v>
       </c>
       <c r="B49" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C49" t="s">
         <v>732</v>
@@ -5206,7 +5238,7 @@
         <v>862</v>
       </c>
       <c r="B50" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C50" t="s">
         <v>733</v>
@@ -5220,7 +5252,7 @@
         <v>863</v>
       </c>
       <c r="B51" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C51" t="s">
         <v>735</v>
@@ -5234,7 +5266,7 @@
         <v>864</v>
       </c>
       <c r="B52" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C52" t="s">
         <v>736</v>
@@ -5248,7 +5280,7 @@
         <v>865</v>
       </c>
       <c r="B53" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C53" t="s">
         <v>738</v>
@@ -5262,7 +5294,7 @@
         <v>866</v>
       </c>
       <c r="B54" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C54" t="s">
         <v>739</v>
@@ -5276,7 +5308,7 @@
         <v>867</v>
       </c>
       <c r="B55" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C55" t="s">
         <v>741</v>
@@ -5290,7 +5322,7 @@
         <v>868</v>
       </c>
       <c r="B56" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C56" t="s">
         <v>743</v>
@@ -5304,7 +5336,7 @@
         <v>869</v>
       </c>
       <c r="B57" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C57" t="s">
         <v>745</v>
@@ -5318,7 +5350,7 @@
         <v>870</v>
       </c>
       <c r="B58" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C58" t="s">
         <v>747</v>
@@ -5332,7 +5364,7 @@
         <v>871</v>
       </c>
       <c r="B59" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C59" t="s">
         <v>748</v>
@@ -5346,7 +5378,7 @@
         <v>872</v>
       </c>
       <c r="B60" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C60" t="s">
         <v>749</v>
@@ -5360,7 +5392,7 @@
         <v>873</v>
       </c>
       <c r="B61" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C61" t="s">
         <v>750</v>
@@ -5374,7 +5406,7 @@
         <v>874</v>
       </c>
       <c r="B62" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C62" t="s">
         <v>752</v>
@@ -5388,7 +5420,7 @@
         <v>875</v>
       </c>
       <c r="B63" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C63" t="s">
         <v>754</v>
@@ -5402,7 +5434,7 @@
         <v>876</v>
       </c>
       <c r="B64" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C64" t="s">
         <v>756</v>
@@ -5416,7 +5448,7 @@
         <v>877</v>
       </c>
       <c r="B65" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C65" t="s">
         <v>757</v>
@@ -5430,7 +5462,7 @@
         <v>878</v>
       </c>
       <c r="B66" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C66" t="s">
         <v>759</v>
@@ -5444,7 +5476,7 @@
         <v>879</v>
       </c>
       <c r="B67" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C67" t="s">
         <v>761</v>
@@ -5458,7 +5490,7 @@
         <v>880</v>
       </c>
       <c r="B68" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C68" t="s">
         <v>763</v>
@@ -5472,7 +5504,7 @@
         <v>881</v>
       </c>
       <c r="B69" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C69" t="s">
         <v>764</v>
@@ -5486,7 +5518,7 @@
         <v>882</v>
       </c>
       <c r="B70" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C70" t="s">
         <v>765</v>
@@ -5500,7 +5532,7 @@
         <v>883</v>
       </c>
       <c r="B71" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C71" t="s">
         <v>767</v>
@@ -5514,7 +5546,7 @@
         <v>884</v>
       </c>
       <c r="B72" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C72" t="s">
         <v>768</v>
@@ -5528,7 +5560,7 @@
         <v>885</v>
       </c>
       <c r="B73" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C73" t="s">
         <v>770</v>
@@ -5542,7 +5574,7 @@
         <v>886</v>
       </c>
       <c r="B74" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C74" t="s">
         <v>772</v>
@@ -5556,7 +5588,7 @@
         <v>887</v>
       </c>
       <c r="B75" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C75" t="s">
         <v>774</v>
@@ -5570,7 +5602,7 @@
         <v>888</v>
       </c>
       <c r="B76" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C76" t="s">
         <v>775</v>
@@ -5584,7 +5616,7 @@
         <v>889</v>
       </c>
       <c r="B77" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C77" t="s">
         <v>777</v>
@@ -5598,7 +5630,7 @@
         <v>890</v>
       </c>
       <c r="B78" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C78" t="s">
         <v>779</v>
@@ -5612,7 +5644,7 @@
         <v>891</v>
       </c>
       <c r="B79" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C79" t="s">
         <v>780</v>
@@ -5626,7 +5658,7 @@
         <v>892</v>
       </c>
       <c r="B80" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C80" t="s">
         <v>781</v>
@@ -5640,7 +5672,7 @@
         <v>893</v>
       </c>
       <c r="B81" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C81" t="s">
         <v>783</v>
@@ -5654,7 +5686,7 @@
         <v>894</v>
       </c>
       <c r="B82" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C82" t="s">
         <v>784</v>
@@ -5668,7 +5700,7 @@
         <v>895</v>
       </c>
       <c r="B83" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C83" t="s">
         <v>786</v>
@@ -5682,7 +5714,7 @@
         <v>896</v>
       </c>
       <c r="B84" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C84" t="s">
         <v>788</v>
@@ -5696,7 +5728,7 @@
         <v>897</v>
       </c>
       <c r="B85" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C85" t="s">
         <v>790</v>
@@ -5710,7 +5742,7 @@
         <v>898</v>
       </c>
       <c r="B86" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C86" t="s">
         <v>791</v>
@@ -5724,7 +5756,7 @@
         <v>899</v>
       </c>
       <c r="B87" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C87" t="s">
         <v>793</v>
@@ -5738,7 +5770,7 @@
         <v>900</v>
       </c>
       <c r="B88" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C88" t="s">
         <v>794</v>
@@ -5752,7 +5784,7 @@
         <v>901</v>
       </c>
       <c r="B89" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C89" t="s">
         <v>795</v>
@@ -5766,7 +5798,7 @@
         <v>902</v>
       </c>
       <c r="B90" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C90" t="s">
         <v>796</v>
@@ -5780,7 +5812,7 @@
         <v>903</v>
       </c>
       <c r="B91" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C91" t="s">
         <v>797</v>
@@ -5794,7 +5826,7 @@
         <v>904</v>
       </c>
       <c r="B92" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C92" t="s">
         <v>798</v>
@@ -5808,7 +5840,7 @@
         <v>905</v>
       </c>
       <c r="B93" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C93" t="s">
         <v>799</v>
@@ -5822,7 +5854,7 @@
         <v>906</v>
       </c>
       <c r="B94" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C94" t="s">
         <v>800</v>
@@ -5836,7 +5868,7 @@
         <v>907</v>
       </c>
       <c r="B95" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C95" t="s">
         <v>801</v>
@@ -5850,7 +5882,7 @@
         <v>908</v>
       </c>
       <c r="B96" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C96" t="s">
         <v>802</v>
@@ -5864,7 +5896,7 @@
         <v>909</v>
       </c>
       <c r="B97" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C97" t="s">
         <v>803</v>
@@ -5878,7 +5910,7 @@
         <v>910</v>
       </c>
       <c r="B98" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C98" t="s">
         <v>804</v>
@@ -5892,7 +5924,7 @@
         <v>911</v>
       </c>
       <c r="B99" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C99" t="s">
         <v>805</v>
@@ -5906,7 +5938,7 @@
         <v>912</v>
       </c>
       <c r="B100" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C100" t="s">
         <v>806</v>
@@ -5920,7 +5952,7 @@
         <v>913</v>
       </c>
       <c r="B101" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C101" t="s">
         <v>807</v>
@@ -5934,7 +5966,7 @@
         <v>914</v>
       </c>
       <c r="B102" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C102" t="s">
         <v>808</v>
@@ -5948,7 +5980,7 @@
         <v>915</v>
       </c>
       <c r="B103" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C103" t="s">
         <v>809</v>
@@ -5962,7 +5994,7 @@
         <v>916</v>
       </c>
       <c r="B104" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C104" t="s">
         <v>810</v>
@@ -5976,7 +6008,7 @@
         <v>917</v>
       </c>
       <c r="B105" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C105" t="s">
         <v>811</v>
@@ -5990,7 +6022,7 @@
         <v>918</v>
       </c>
       <c r="B106" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C106" t="s">
         <v>812</v>
@@ -6004,7 +6036,7 @@
         <v>919</v>
       </c>
       <c r="B107" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C107" t="s">
         <v>980</v>
@@ -6018,7 +6050,7 @@
         <v>920</v>
       </c>
       <c r="B108" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C108" t="s">
         <v>981</v>
@@ -6032,10 +6064,10 @@
         <v>921</v>
       </c>
       <c r="B109" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C109" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -6046,7 +6078,7 @@
         <v>922</v>
       </c>
       <c r="B110" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C110" t="s">
         <v>982</v>
@@ -6060,7 +6092,7 @@
         <v>923</v>
       </c>
       <c r="B111" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C111" t="s">
         <v>983</v>
@@ -6074,7 +6106,7 @@
         <v>924</v>
       </c>
       <c r="B112" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C112" t="s">
         <v>984</v>
@@ -6088,7 +6120,7 @@
         <v>925</v>
       </c>
       <c r="B113" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C113" t="s">
         <v>985</v>
@@ -6102,7 +6134,7 @@
         <v>926</v>
       </c>
       <c r="B114" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C114" t="s">
         <v>986</v>
@@ -6116,7 +6148,7 @@
         <v>927</v>
       </c>
       <c r="B115" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C115" t="s">
         <v>987</v>
@@ -6130,7 +6162,7 @@
         <v>928</v>
       </c>
       <c r="B116" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C116" t="s">
         <v>988</v>
@@ -6144,7 +6176,7 @@
         <v>929</v>
       </c>
       <c r="B117" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C117" t="s">
         <v>989</v>
@@ -6158,7 +6190,7 @@
         <v>930</v>
       </c>
       <c r="B118" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C118" t="s">
         <v>990</v>
@@ -6172,7 +6204,7 @@
         <v>931</v>
       </c>
       <c r="B119" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C119" t="s">
         <v>991</v>
@@ -6186,10 +6218,10 @@
         <v>932</v>
       </c>
       <c r="B120" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C120" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -6200,10 +6232,10 @@
         <v>933</v>
       </c>
       <c r="B121" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C121" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -6214,10 +6246,10 @@
         <v>934</v>
       </c>
       <c r="B122" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C122" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -6228,10 +6260,10 @@
         <v>935</v>
       </c>
       <c r="B123" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C123" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -6242,10 +6274,10 @@
         <v>936</v>
       </c>
       <c r="B124" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C124" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="D124">
         <v>1</v>
@@ -6256,10 +6288,10 @@
         <v>937</v>
       </c>
       <c r="B125" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C125" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="D125">
         <v>1</v>
@@ -6270,10 +6302,10 @@
         <v>938</v>
       </c>
       <c r="B126" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C126" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -6284,7 +6316,7 @@
         <v>939</v>
       </c>
       <c r="B127" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C127" t="s">
         <v>992</v>
@@ -6298,7 +6330,7 @@
         <v>940</v>
       </c>
       <c r="B128" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C128" t="s">
         <v>993</v>
@@ -6312,7 +6344,7 @@
         <v>941</v>
       </c>
       <c r="B129" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C129" t="s">
         <v>994</v>
@@ -6336,7 +6368,7 @@
         <v>944</v>
       </c>
       <c r="B132" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="C132" t="s">
         <v>791</v>
@@ -6350,7 +6382,7 @@
         <v>945</v>
       </c>
       <c r="B133" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="C133" t="s">
         <v>793</v>
@@ -6364,7 +6396,7 @@
         <v>946</v>
       </c>
       <c r="B134" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="C134" t="s">
         <v>810</v>
@@ -6378,7 +6410,7 @@
         <v>947</v>
       </c>
       <c r="B135" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="C135" t="s">
         <v>995</v>
@@ -6397,10 +6429,10 @@
         <v>949</v>
       </c>
       <c r="B137" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="C137" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="D137">
         <v>3</v>
@@ -6411,7 +6443,7 @@
         <v>950</v>
       </c>
       <c r="B138" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="C138" t="s">
         <v>996</v>
@@ -6425,7 +6457,7 @@
         <v>951</v>
       </c>
       <c r="B139" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="C139" t="s">
         <v>997</v>
@@ -6439,10 +6471,10 @@
         <v>952</v>
       </c>
       <c r="B140" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="C140" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="D140">
         <v>3</v>
@@ -6453,10 +6485,10 @@
         <v>953</v>
       </c>
       <c r="B141" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="C141" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="D141">
         <v>3</v>
@@ -6467,10 +6499,10 @@
         <v>954</v>
       </c>
       <c r="B142" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="C142" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="D142">
         <v>3</v>
@@ -6481,10 +6513,10 @@
         <v>955</v>
       </c>
       <c r="B143" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="C143" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="D143">
         <v>3</v>
@@ -6495,10 +6527,10 @@
         <v>956</v>
       </c>
       <c r="B144" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="C144" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="D144">
         <v>3</v>
@@ -6509,10 +6541,10 @@
         <v>957</v>
       </c>
       <c r="B145" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="C145" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="D145">
         <v>3</v>
@@ -6523,10 +6555,10 @@
         <v>958</v>
       </c>
       <c r="B146" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="C146" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="D146">
         <v>3</v>
@@ -6537,7 +6569,7 @@
         <v>959</v>
       </c>
       <c r="B147" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="C147" t="s">
         <v>998</v>
@@ -6571,7 +6603,7 @@
         <v>964</v>
       </c>
       <c r="B152" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="D152">
         <v>4</v>
@@ -6582,7 +6614,7 @@
         <v>965</v>
       </c>
       <c r="B153" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="D153">
         <v>4</v>
@@ -6598,7 +6630,7 @@
         <v>967</v>
       </c>
       <c r="B155" t="s">
-        <v>1345</v>
+        <v>1339</v>
       </c>
       <c r="D155">
         <v>5</v>
@@ -6614,7 +6646,7 @@
         <v>969</v>
       </c>
       <c r="B157" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="D157">
         <v>6</v>
@@ -6625,7 +6657,7 @@
         <v>970</v>
       </c>
       <c r="B158" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="D158">
         <v>6</v>
@@ -6636,7 +6668,7 @@
         <v>971</v>
       </c>
       <c r="B159" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="D159">
         <v>6</v>
@@ -6647,7 +6679,7 @@
         <v>972</v>
       </c>
       <c r="B160" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="D160">
         <v>6</v>
@@ -6663,7 +6695,7 @@
         <v>974</v>
       </c>
       <c r="B162" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="D162">
         <v>7</v>
@@ -6674,7 +6706,7 @@
         <v>975</v>
       </c>
       <c r="B163" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="D163">
         <v>8</v>
@@ -6685,7 +6717,7 @@
         <v>976</v>
       </c>
       <c r="B164" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="D164">
         <v>8</v>
@@ -6696,7 +6728,7 @@
         <v>977</v>
       </c>
       <c r="B165" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="D165">
         <v>8</v>
@@ -6714,10 +6746,10 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="B168" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C168" t="s">
         <v>660</v>
@@ -6728,10 +6760,10 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B169" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C169" t="s">
         <v>661</v>
@@ -6742,10 +6774,10 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="B170" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C170" t="s">
         <v>663</v>
@@ -6756,10 +6788,10 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="B171" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C171" t="s">
         <v>664</v>
@@ -6770,10 +6802,10 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="B172" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C172" t="s">
         <v>666</v>
@@ -6784,10 +6816,10 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="B173" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C173" t="s">
         <v>667</v>
@@ -6798,10 +6830,10 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="B174" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C174" t="s">
         <v>669</v>
@@ -6812,10 +6844,10 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="B175" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C175" t="s">
         <v>671</v>
@@ -6826,10 +6858,10 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="B176" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C176" t="s">
         <v>672</v>
@@ -6840,10 +6872,10 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="B177" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C177" t="s">
         <v>674</v>
@@ -6854,10 +6886,10 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="B178" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C178" t="s">
         <v>676</v>
@@ -6868,10 +6900,10 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="B179" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C179" t="s">
         <v>677</v>
@@ -6882,10 +6914,10 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B180" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C180" t="s">
         <v>678</v>
@@ -6896,10 +6928,10 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="B181" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C181" t="s">
         <v>680</v>
@@ -6910,10 +6942,10 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="B182" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C182" t="s">
         <v>681</v>
@@ -6924,10 +6956,10 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B183" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C183" t="s">
         <v>682</v>
@@ -6938,10 +6970,10 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="B184" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C184" t="s">
         <v>683</v>
@@ -6952,10 +6984,10 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="B185" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C185" t="s">
         <v>684</v>
@@ -6966,10 +6998,10 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="B186" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C186" t="s">
         <v>686</v>
@@ -6980,10 +7012,10 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="B187" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C187" t="s">
         <v>688</v>
@@ -6994,10 +7026,10 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="B188" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C188" t="s">
         <v>689</v>
@@ -7008,10 +7040,10 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="B189" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C189" t="s">
         <v>691</v>
@@ -7022,10 +7054,10 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="B190" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C190" t="s">
         <v>692</v>
@@ -7036,10 +7068,10 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="B191" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C191" t="s">
         <v>694</v>
@@ -7050,10 +7082,10 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="B192" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C192" t="s">
         <v>696</v>
@@ -7064,10 +7096,10 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="B193" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C193" t="s">
         <v>698</v>
@@ -7078,10 +7110,10 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="B194" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C194" t="s">
         <v>700</v>
@@ -7092,10 +7124,10 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="B195" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C195" t="s">
         <v>702</v>
@@ -7106,10 +7138,10 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="B196" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C196" t="s">
         <v>704</v>
@@ -7120,10 +7152,10 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="B197" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C197" t="s">
         <v>706</v>
@@ -7134,10 +7166,10 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="B198" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C198" t="s">
         <v>707</v>
@@ -7148,10 +7180,10 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="B199" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C199" t="s">
         <v>709</v>
@@ -7162,10 +7194,10 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="B200" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C200" t="s">
         <v>711</v>
@@ -7176,10 +7208,10 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="B201" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C201" t="s">
         <v>713</v>
@@ -7190,10 +7222,10 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="B202" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C202" t="s">
         <v>714</v>
@@ -7204,10 +7236,10 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="B203" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C203" t="s">
         <v>716</v>
@@ -7218,10 +7250,10 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="B204" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C204" t="s">
         <v>717</v>
@@ -7232,10 +7264,10 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="B205" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C205" t="s">
         <v>718</v>
@@ -7246,10 +7278,10 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="B206" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C206" t="s">
         <v>719</v>
@@ -7260,10 +7292,10 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="B207" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C207" t="s">
         <v>721</v>
@@ -7274,10 +7306,10 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="B208" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C208" t="s">
         <v>722</v>
@@ -7288,10 +7320,10 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="B209" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C209" t="s">
         <v>723</v>
@@ -7302,10 +7334,10 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="B210" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C210" t="s">
         <v>725</v>
@@ -7316,10 +7348,10 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="B211" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C211" t="s">
         <v>726</v>
@@ -7330,10 +7362,10 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="B212" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C212" t="s">
         <v>727</v>
@@ -7344,10 +7376,10 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B213" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C213" t="s">
         <v>729</v>
@@ -7358,10 +7390,10 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="B214" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C214" t="s">
         <v>731</v>
@@ -7372,10 +7404,10 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="B215" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C215" t="s">
         <v>732</v>
@@ -7386,10 +7418,10 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="B216" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C216" t="s">
         <v>733</v>
@@ -7400,10 +7432,10 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="B217" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C217" t="s">
         <v>735</v>
@@ -7414,10 +7446,10 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="B218" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C218" t="s">
         <v>736</v>
@@ -7428,10 +7460,10 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="B219" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C219" t="s">
         <v>738</v>
@@ -7442,10 +7474,10 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="B220" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C220" t="s">
         <v>739</v>
@@ -7456,10 +7488,10 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="B221" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C221" t="s">
         <v>741</v>
@@ -7470,10 +7502,10 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="B222" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C222" t="s">
         <v>743</v>
@@ -7484,10 +7516,10 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="B223" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C223" t="s">
         <v>745</v>
@@ -7498,10 +7530,10 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="B224" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C224" t="s">
         <v>747</v>
@@ -7512,10 +7544,10 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="B225" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C225" t="s">
         <v>748</v>
@@ -7526,10 +7558,10 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="B226" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C226" t="s">
         <v>749</v>
@@ -7540,10 +7572,10 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="B227" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C227" t="s">
         <v>750</v>
@@ -7554,10 +7586,10 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="B228" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C228" t="s">
         <v>752</v>
@@ -7568,10 +7600,10 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B229" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C229" t="s">
         <v>754</v>
@@ -7582,10 +7614,10 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="B230" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C230" t="s">
         <v>756</v>
@@ -7596,10 +7628,10 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A231" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="B231" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C231" t="s">
         <v>757</v>
@@ -7610,10 +7642,10 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A232" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B232" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C232" t="s">
         <v>759</v>
@@ -7624,10 +7656,10 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A233" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="B233" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C233" t="s">
         <v>761</v>
@@ -7638,10 +7670,10 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A234" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="B234" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C234" t="s">
         <v>763</v>
@@ -7652,10 +7684,10 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A235" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="B235" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C235" t="s">
         <v>764</v>
@@ -7666,10 +7698,10 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A236" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="B236" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C236" t="s">
         <v>765</v>
@@ -7680,10 +7712,10 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="B237" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C237" t="s">
         <v>767</v>
@@ -7694,10 +7726,10 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A238" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="B238" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C238" t="s">
         <v>768</v>
@@ -7708,10 +7740,10 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="B239" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C239" t="s">
         <v>770</v>
@@ -7722,10 +7754,10 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A240" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="B240" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C240" t="s">
         <v>772</v>
@@ -7736,10 +7768,10 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A241" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="B241" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C241" t="s">
         <v>774</v>
@@ -7750,10 +7782,10 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A242" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="B242" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C242" t="s">
         <v>775</v>
@@ -7764,10 +7796,10 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A243" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="B243" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C243" t="s">
         <v>777</v>
@@ -7778,10 +7810,10 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A244" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="B244" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C244" t="s">
         <v>779</v>
@@ -7792,10 +7824,10 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A245" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="B245" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C245" t="s">
         <v>780</v>
@@ -7806,10 +7838,10 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A246" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="B246" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C246" t="s">
         <v>781</v>
@@ -7820,10 +7852,10 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A247" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="B247" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C247" t="s">
         <v>783</v>
@@ -7834,10 +7866,10 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A248" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="B248" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C248" t="s">
         <v>784</v>
@@ -7848,10 +7880,10 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A249" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="B249" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C249" t="s">
         <v>786</v>
@@ -7862,10 +7894,10 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A250" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="B250" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C250" t="s">
         <v>788</v>
@@ -7876,10 +7908,10 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A251" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="B251" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C251" t="s">
         <v>790</v>
@@ -7890,10 +7922,10 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A252" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="B252" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C252" t="s">
         <v>791</v>
@@ -7904,10 +7936,10 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A253" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="B253" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C253" t="s">
         <v>793</v>
@@ -7918,10 +7950,10 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A254" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="B254" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C254" t="s">
         <v>794</v>
@@ -7932,10 +7964,10 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A255" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="B255" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C255" t="s">
         <v>795</v>
@@ -7946,10 +7978,10 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A256" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="B256" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C256" t="s">
         <v>796</v>
@@ -7960,10 +7992,10 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A257" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="B257" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C257" t="s">
         <v>797</v>
@@ -7974,10 +8006,10 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A258" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="B258" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C258" t="s">
         <v>798</v>
@@ -7988,10 +8020,10 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A259" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="B259" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C259" t="s">
         <v>799</v>
@@ -8002,10 +8034,10 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A260" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="B260" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C260" t="s">
         <v>800</v>
@@ -8016,10 +8048,10 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A261" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="B261" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C261" t="s">
         <v>801</v>
@@ -8030,10 +8062,10 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A262" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="B262" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C262" t="s">
         <v>802</v>
@@ -8044,10 +8076,10 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A263" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="B263" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C263" t="s">
         <v>803</v>
@@ -8058,10 +8090,10 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A264" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="B264" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C264" t="s">
         <v>804</v>
@@ -8072,10 +8104,10 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A265" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="B265" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C265" t="s">
         <v>805</v>
@@ -8086,10 +8118,10 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A266" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="B266" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C266" t="s">
         <v>806</v>
@@ -8100,10 +8132,10 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A267" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="B267" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C267" t="s">
         <v>807</v>
@@ -8114,10 +8146,10 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A268" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="B268" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C268" t="s">
         <v>808</v>
@@ -8128,10 +8160,10 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A269" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="B269" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C269" t="s">
         <v>809</v>
@@ -8142,10 +8174,10 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A270" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="B270" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C270" t="s">
         <v>810</v>
@@ -8156,10 +8188,10 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A271" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="B271" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C271" t="s">
         <v>811</v>
@@ -8170,10 +8202,10 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A272" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="B272" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C272" t="s">
         <v>812</v>
@@ -8184,10 +8216,10 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A273" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="B273" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C273" t="s">
         <v>980</v>
@@ -8198,10 +8230,10 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A274" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="B274" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C274" t="s">
         <v>981</v>
@@ -8212,13 +8244,13 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A275" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="B275" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C275" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="D275">
         <v>1</v>
@@ -8226,10 +8258,10 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A276" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="B276" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C276" t="s">
         <v>982</v>
@@ -8240,10 +8272,10 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A277" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B277" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C277" t="s">
         <v>983</v>
@@ -8254,10 +8286,10 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A278" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="B278" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C278" t="s">
         <v>984</v>
@@ -8268,10 +8300,10 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A279" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="B279" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C279" t="s">
         <v>985</v>
@@ -8282,10 +8314,10 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A280" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="B280" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C280" t="s">
         <v>986</v>
@@ -8296,10 +8328,10 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A281" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="B281" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C281" t="s">
         <v>987</v>
@@ -8310,10 +8342,10 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A282" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="B282" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C282" t="s">
         <v>988</v>
@@ -8324,10 +8356,10 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A283" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="B283" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C283" t="s">
         <v>989</v>
@@ -8338,10 +8370,10 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A284" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="B284" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C284" t="s">
         <v>990</v>
@@ -8352,10 +8384,10 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A285" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="B285" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C285" t="s">
         <v>991</v>
@@ -8366,13 +8398,13 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A286" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="B286" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C286" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="D286">
         <v>1</v>
@@ -8380,13 +8412,13 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A287" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="B287" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C287" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="D287">
         <v>1</v>
@@ -8394,13 +8426,13 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A288" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="B288" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C288" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="D288">
         <v>1</v>
@@ -8408,13 +8440,13 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A289" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="B289" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C289" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="D289">
         <v>1</v>
@@ -8422,13 +8454,13 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A290" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="B290" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C290" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="D290">
         <v>1</v>
@@ -8436,13 +8468,13 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A291" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="B291" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C291" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="D291">
         <v>1</v>
@@ -8450,13 +8482,13 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A292" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="B292" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C292" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="D292">
         <v>1</v>
@@ -8464,10 +8496,10 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A293" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="B293" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C293" t="s">
         <v>992</v>
@@ -8478,10 +8510,10 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A294" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="B294" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C294" t="s">
         <v>993</v>
@@ -8492,10 +8524,10 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A295" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="B295" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C295" t="s">
         <v>994</v>
@@ -8506,20 +8538,20 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A296" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A297" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A298" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="B298" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="C298" t="s">
         <v>791</v>
@@ -8530,10 +8562,10 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A299" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="B299" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="C299" t="s">
         <v>793</v>
@@ -8544,10 +8576,10 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A300" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="B300" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="C300" t="s">
         <v>810</v>
@@ -8558,10 +8590,10 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A301" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="B301" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="C301" t="s">
         <v>995</v>
@@ -8572,18 +8604,18 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A302" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A303" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="B303" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="C303" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="D303">
         <v>3</v>
@@ -8591,10 +8623,10 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A304" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="B304" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="C304" t="s">
         <v>996</v>
@@ -8605,10 +8637,10 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A305" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="B305" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="C305" t="s">
         <v>997</v>
@@ -8619,13 +8651,13 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A306" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="B306" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="C306" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="D306">
         <v>3</v>
@@ -8633,13 +8665,13 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A307" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="B307" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="C307" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="D307">
         <v>3</v>
@@ -8647,13 +8679,13 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A308" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="B308" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="C308" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="D308">
         <v>3</v>
@@ -8661,13 +8693,13 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A309" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="B309" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="C309" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="D309">
         <v>3</v>
@@ -8675,13 +8707,13 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A310" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="B310" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="C310" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="D310">
         <v>3</v>
@@ -8689,13 +8721,13 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A311" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="B311" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="C311" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="D311">
         <v>3</v>
@@ -8703,13 +8735,13 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A312" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="B312" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="C312" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="D312">
         <v>3</v>
@@ -8717,10 +8749,10 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A313" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="B313" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="C313" t="s">
         <v>998</v>
@@ -8731,30 +8763,30 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A314" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A315" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A316" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A317" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A318" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="B318" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="D318">
         <v>9</v>
@@ -8762,10 +8794,10 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A319" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="B319" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="D319">
         <v>9</v>
@@ -8773,15 +8805,15 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A320" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A321" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="B321" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="D321">
         <v>10</v>
@@ -8789,10 +8821,10 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A322" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="B322" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="D322">
         <v>10</v>
@@ -8800,10 +8832,10 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A323" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="B323" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="D323">
         <v>10</v>
@@ -8811,15 +8843,15 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A324" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A325" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="B325" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="D325">
         <v>10</v>
@@ -8827,10 +8859,10 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A326" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="B326" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="D326">
         <v>10</v>
@@ -8838,20 +8870,20 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A327" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A328" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A329" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="B329" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="D329">
         <v>11</v>
@@ -8859,10 +8891,10 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A330" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="B330" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="D330">
         <v>11</v>
@@ -8870,10 +8902,10 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A331" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="B331" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="D331">
         <v>11</v>
@@ -8881,12 +8913,12 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A332" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A333" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
     </row>
   </sheetData>
@@ -8904,13 +8936,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="B1" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
       <c r="C1" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
@@ -11338,12 +11370,12 @@
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
     </row>
   </sheetData>
@@ -11356,7 +11388,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05E38F5-79ED-4AF1-BD6D-0CBD9E0C28A7}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -11365,464 +11399,464 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>1083</v>
+        <v>1341</v>
       </c>
       <c r="B1" t="s">
-        <v>1258</v>
+        <v>1368</v>
       </c>
       <c r="C1" t="s">
-        <v>1338</v>
+        <v>1369</v>
       </c>
       <c r="D1" t="s">
-        <v>1339</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="B2" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="C2" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="D2" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="B3" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="C3" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="D3" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="B4" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="C4" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="D4" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="B5" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
       <c r="C5" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="D5" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="B6" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="C6" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="D6" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="B7" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="C7" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="D7" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="B8" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="C8" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="D8" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="B9" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="C9" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="D9" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="B10" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="C10" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="D10" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="B11" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="C11" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="D11" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="B12" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="C12" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="D12" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="B13" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="C13" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="D13" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="B14" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="C14" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="D14" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="B15" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="C15" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="D15" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="B16" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="C16" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="D16" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="B17" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="C17" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="D17" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="B18" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="C18" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="D18" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="B19" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="C19" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="D19" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="B20" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="C20" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="D20" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="B21" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="C21" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="D21" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="B22" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="C22" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="D22" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="B23" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="C23" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="D23" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="B24" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="C24" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="D24" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="B25" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="C25" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="D25" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="B26" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="C26" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="D26" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="B27" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="C27" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="D27" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="B28" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="C28" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="D28" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="B29" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="C29" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="D29" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="B30" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D30" t="s">
         <v>1333</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1336</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1337</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="B31" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="C31" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="D31" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C32" t="s">
         <v>1332</v>
       </c>
-      <c r="B32" t="s">
-        <v>1335</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1336</v>
-      </c>
       <c r="D32" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>1345</v>
+        <v>1339</v>
       </c>
       <c r="B33" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
       <c r="C33" t="s">
-        <v>1345</v>
+        <v>1339</v>
       </c>
       <c r="D33" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
     </row>
   </sheetData>
@@ -11834,16 +11868,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D1C4B1-99FA-4847-8C6B-549B844D73AF}">
   <dimension ref="A1:B218"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="30.07421875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
       <c r="B1" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -13588,21 +13627,3132 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5771528-5385-4372-93C5-35F6DE420C38}">
+  <dimension ref="A1:D218"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="A44" sqref="A44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="40.53515625" customWidth="1"/>
+    <col min="4" max="4" width="16.3046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" t="s">
+        <v>119</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" t="s">
+        <v>123</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" t="s">
+        <v>125</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" t="s">
+        <v>131</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" t="s">
+        <v>133</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" t="s">
+        <v>135</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70" t="s">
+        <v>137</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" t="s">
+        <v>139</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" t="s">
+        <v>141</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>142</v>
+      </c>
+      <c r="B73" t="s">
+        <v>143</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>144</v>
+      </c>
+      <c r="B74" t="s">
+        <v>145</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>146</v>
+      </c>
+      <c r="B75" t="s">
+        <v>147</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>148</v>
+      </c>
+      <c r="B76" t="s">
+        <v>149</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>150</v>
+      </c>
+      <c r="B77" t="s">
+        <v>151</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>152</v>
+      </c>
+      <c r="B78" t="s">
+        <v>153</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>154</v>
+      </c>
+      <c r="B79" t="s">
+        <v>155</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>156</v>
+      </c>
+      <c r="B80" t="s">
+        <v>157</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>158</v>
+      </c>
+      <c r="B81" t="s">
+        <v>159</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>160</v>
+      </c>
+      <c r="B82" t="s">
+        <v>161</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>162</v>
+      </c>
+      <c r="B83" t="s">
+        <v>163</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>164</v>
+      </c>
+      <c r="B84" t="s">
+        <v>165</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>166</v>
+      </c>
+      <c r="B85" t="s">
+        <v>167</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>168</v>
+      </c>
+      <c r="B86" t="s">
+        <v>169</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>170</v>
+      </c>
+      <c r="B87" t="s">
+        <v>171</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>172</v>
+      </c>
+      <c r="B88" t="s">
+        <v>173</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>174</v>
+      </c>
+      <c r="B89" t="s">
+        <v>175</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>176</v>
+      </c>
+      <c r="B90" t="s">
+        <v>177</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>178</v>
+      </c>
+      <c r="B91" t="s">
+        <v>179</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>180</v>
+      </c>
+      <c r="B92" t="s">
+        <v>181</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>182</v>
+      </c>
+      <c r="B93" t="s">
+        <v>183</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>184</v>
+      </c>
+      <c r="B94" t="s">
+        <v>185</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>186</v>
+      </c>
+      <c r="B95" t="s">
+        <v>187</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
+        <v>188</v>
+      </c>
+      <c r="B96" t="s">
+        <v>189</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
+        <v>190</v>
+      </c>
+      <c r="B97" t="s">
+        <v>191</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>192</v>
+      </c>
+      <c r="B98" t="s">
+        <v>193</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A99" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C99" s="1">
+        <v>3</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A100" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C100" s="1">
+        <v>3</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A101" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C101" s="1">
+        <v>3</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A102" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C102" s="1">
+        <v>3</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A103" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C103" s="1">
+        <v>3</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A104" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C104" s="1">
+        <v>3</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A105" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C105" s="1">
+        <v>3</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A106" t="s">
+        <v>208</v>
+      </c>
+      <c r="B106" t="s">
+        <v>209</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A107" t="s">
+        <v>210</v>
+      </c>
+      <c r="B107" t="s">
+        <v>211</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A108" t="s">
+        <v>212</v>
+      </c>
+      <c r="B108" t="s">
+        <v>213</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A109" t="s">
+        <v>214</v>
+      </c>
+      <c r="B109" t="s">
+        <v>215</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A110" t="s">
+        <v>216</v>
+      </c>
+      <c r="B110" t="s">
+        <v>217</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
+        <v>218</v>
+      </c>
+      <c r="B111" t="s">
+        <v>219</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
+        <v>220</v>
+      </c>
+      <c r="B112" t="s">
+        <v>221</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A113" t="s">
+        <v>222</v>
+      </c>
+      <c r="B113" t="s">
+        <v>223</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A114" t="s">
+        <v>224</v>
+      </c>
+      <c r="B114" t="s">
+        <v>225</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A115" t="s">
+        <v>226</v>
+      </c>
+      <c r="B115" t="s">
+        <v>227</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A116" t="s">
+        <v>228</v>
+      </c>
+      <c r="B116" t="s">
+        <v>229</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A117" t="s">
+        <v>230</v>
+      </c>
+      <c r="B117" t="s">
+        <v>231</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A118" t="s">
+        <v>232</v>
+      </c>
+      <c r="B118" t="s">
+        <v>233</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A119" t="s">
+        <v>234</v>
+      </c>
+      <c r="B119" t="s">
+        <v>235</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A120" t="s">
+        <v>236</v>
+      </c>
+      <c r="B120" t="s">
+        <v>237</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A121" t="s">
+        <v>238</v>
+      </c>
+      <c r="B121" t="s">
+        <v>239</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A122" t="s">
+        <v>240</v>
+      </c>
+      <c r="B122" t="s">
+        <v>241</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A123" t="s">
+        <v>242</v>
+      </c>
+      <c r="B123" t="s">
+        <v>243</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A124" t="s">
+        <v>244</v>
+      </c>
+      <c r="B124" t="s">
+        <v>245</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A125" t="s">
+        <v>246</v>
+      </c>
+      <c r="B125" t="s">
+        <v>247</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A126" t="s">
+        <v>248</v>
+      </c>
+      <c r="B126" t="s">
+        <v>249</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A127" t="s">
+        <v>250</v>
+      </c>
+      <c r="B127" t="s">
+        <v>251</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A128" t="s">
+        <v>252</v>
+      </c>
+      <c r="B128" t="s">
+        <v>253</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A129" t="s">
+        <v>254</v>
+      </c>
+      <c r="B129" t="s">
+        <v>255</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A130" t="s">
+        <v>256</v>
+      </c>
+      <c r="B130" t="s">
+        <v>257</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A131" t="s">
+        <v>258</v>
+      </c>
+      <c r="B131" t="s">
+        <v>259</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A132" t="s">
+        <v>260</v>
+      </c>
+      <c r="B132" t="s">
+        <v>261</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A133" t="s">
+        <v>262</v>
+      </c>
+      <c r="B133" t="s">
+        <v>263</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A134" t="s">
+        <v>264</v>
+      </c>
+      <c r="B134" t="s">
+        <v>265</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A135" t="s">
+        <v>266</v>
+      </c>
+      <c r="B135" t="s">
+        <v>267</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A136" t="s">
+        <v>268</v>
+      </c>
+      <c r="B136" t="s">
+        <v>269</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A137" t="s">
+        <v>270</v>
+      </c>
+      <c r="B137" t="s">
+        <v>271</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A138" t="s">
+        <v>272</v>
+      </c>
+      <c r="B138" t="s">
+        <v>273</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A139" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C139" s="1">
+        <v>2</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A140" t="s">
+        <v>276</v>
+      </c>
+      <c r="B140" t="s">
+        <v>277</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A141" t="s">
+        <v>278</v>
+      </c>
+      <c r="B141" t="s">
+        <v>279</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A142" t="s">
+        <v>280</v>
+      </c>
+      <c r="B142" t="s">
+        <v>281</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A143" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C143" s="1">
+        <v>3</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A144" t="s">
+        <v>284</v>
+      </c>
+      <c r="B144" t="s">
+        <v>285</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A145" t="s">
+        <v>286</v>
+      </c>
+      <c r="B145" t="s">
+        <v>287</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A146" t="s">
+        <v>288</v>
+      </c>
+      <c r="B146" t="s">
+        <v>289</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A147" t="s">
+        <v>290</v>
+      </c>
+      <c r="B147" t="s">
+        <v>291</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A148" t="s">
+        <v>292</v>
+      </c>
+      <c r="B148" t="s">
+        <v>293</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A149" t="s">
+        <v>294</v>
+      </c>
+      <c r="B149" t="s">
+        <v>295</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A150" t="s">
+        <v>296</v>
+      </c>
+      <c r="B150" t="s">
+        <v>297</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A151" t="s">
+        <v>298</v>
+      </c>
+      <c r="B151" t="s">
+        <v>299</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A152" t="s">
+        <v>300</v>
+      </c>
+      <c r="B152" t="s">
+        <v>301</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A153" t="s">
+        <v>302</v>
+      </c>
+      <c r="B153" t="s">
+        <v>303</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A154" t="s">
+        <v>304</v>
+      </c>
+      <c r="B154" t="s">
+        <v>305</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A155" t="s">
+        <v>306</v>
+      </c>
+      <c r="B155" t="s">
+        <v>307</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A156" t="s">
+        <v>308</v>
+      </c>
+      <c r="B156" t="s">
+        <v>309</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A157" t="s">
+        <v>310</v>
+      </c>
+      <c r="B157" t="s">
+        <v>311</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A158" t="s">
+        <v>312</v>
+      </c>
+      <c r="B158" t="s">
+        <v>313</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A159" t="s">
+        <v>314</v>
+      </c>
+      <c r="B159" t="s">
+        <v>315</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A160" t="s">
+        <v>316</v>
+      </c>
+      <c r="B160" t="s">
+        <v>317</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A161" t="s">
+        <v>318</v>
+      </c>
+      <c r="B161" t="s">
+        <v>319</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A162" t="s">
+        <v>320</v>
+      </c>
+      <c r="B162" t="s">
+        <v>321</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A163" t="s">
+        <v>322</v>
+      </c>
+      <c r="B163" t="s">
+        <v>323</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+      <c r="D163" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A164" t="s">
+        <v>324</v>
+      </c>
+      <c r="B164" t="s">
+        <v>325</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="D164" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A165" t="s">
+        <v>326</v>
+      </c>
+      <c r="B165" t="s">
+        <v>327</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A166" t="s">
+        <v>328</v>
+      </c>
+      <c r="B166" t="s">
+        <v>329</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="D166" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A167" t="s">
+        <v>330</v>
+      </c>
+      <c r="B167" t="s">
+        <v>331</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="D167" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A168" t="s">
+        <v>332</v>
+      </c>
+      <c r="B168" t="s">
+        <v>333</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A169" t="s">
+        <v>334</v>
+      </c>
+      <c r="B169" t="s">
+        <v>335</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+      <c r="D169" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A170" t="s">
+        <v>336</v>
+      </c>
+      <c r="B170" t="s">
+        <v>337</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="D170" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A171" t="s">
+        <v>338</v>
+      </c>
+      <c r="B171" t="s">
+        <v>339</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="D171" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A172" t="s">
+        <v>340</v>
+      </c>
+      <c r="B172" t="s">
+        <v>341</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A173" t="s">
+        <v>342</v>
+      </c>
+      <c r="B173" t="s">
+        <v>343</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+      <c r="D173" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A174" t="s">
+        <v>344</v>
+      </c>
+      <c r="B174" t="s">
+        <v>345</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+      <c r="D174" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A175" t="s">
+        <v>346</v>
+      </c>
+      <c r="B175" t="s">
+        <v>347</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+      <c r="D175" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A176" t="s">
+        <v>348</v>
+      </c>
+      <c r="B176" t="s">
+        <v>349</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+      <c r="D176" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A177" t="s">
+        <v>350</v>
+      </c>
+      <c r="B177" t="s">
+        <v>351</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+      <c r="D177" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A178" t="s">
+        <v>352</v>
+      </c>
+      <c r="B178" t="s">
+        <v>353</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+      <c r="D178" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A179" t="s">
+        <v>354</v>
+      </c>
+      <c r="B179" t="s">
+        <v>355</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+      <c r="D179" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A180" t="s">
+        <v>356</v>
+      </c>
+      <c r="B180" t="s">
+        <v>357</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+      <c r="D180" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A181" t="s">
+        <v>358</v>
+      </c>
+      <c r="B181" t="s">
+        <v>359</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+      <c r="D181" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A182" t="s">
+        <v>360</v>
+      </c>
+      <c r="B182" t="s">
+        <v>361</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+      <c r="D182" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A183" t="s">
+        <v>362</v>
+      </c>
+      <c r="B183" t="s">
+        <v>363</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+      <c r="D183" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A184" t="s">
+        <v>364</v>
+      </c>
+      <c r="B184" t="s">
+        <v>365</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+      <c r="D184" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A185" t="s">
+        <v>366</v>
+      </c>
+      <c r="B185" t="s">
+        <v>367</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+      <c r="D185" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A186" t="s">
+        <v>368</v>
+      </c>
+      <c r="B186" t="s">
+        <v>369</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+      <c r="D186" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A187" t="s">
+        <v>370</v>
+      </c>
+      <c r="B187" t="s">
+        <v>371</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+      <c r="D187" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A188" t="s">
+        <v>372</v>
+      </c>
+      <c r="B188" t="s">
+        <v>373</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="D188" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A189" t="s">
+        <v>374</v>
+      </c>
+      <c r="B189" t="s">
+        <v>375</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+      <c r="D189" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A190" t="s">
+        <v>376</v>
+      </c>
+      <c r="B190" t="s">
+        <v>377</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+      <c r="D190" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A191" t="s">
+        <v>378</v>
+      </c>
+      <c r="B191" t="s">
+        <v>379</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="D191" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A192" t="s">
+        <v>380</v>
+      </c>
+      <c r="B192" t="s">
+        <v>381</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+      <c r="D192" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A193" t="s">
+        <v>382</v>
+      </c>
+      <c r="B193" t="s">
+        <v>383</v>
+      </c>
+      <c r="C193">
+        <v>1</v>
+      </c>
+      <c r="D193" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A194" t="s">
+        <v>384</v>
+      </c>
+      <c r="B194" t="s">
+        <v>385</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+      <c r="D194" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A195" t="s">
+        <v>386</v>
+      </c>
+      <c r="B195" t="s">
+        <v>387</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+      <c r="D195" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A196" t="s">
+        <v>388</v>
+      </c>
+      <c r="B196" t="s">
+        <v>389</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A197" t="s">
+        <v>390</v>
+      </c>
+      <c r="B197" t="s">
+        <v>391</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+      <c r="D197" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A198" t="s">
+        <v>392</v>
+      </c>
+      <c r="B198" t="s">
+        <v>393</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+      <c r="D198" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A199" t="s">
+        <v>394</v>
+      </c>
+      <c r="B199" t="s">
+        <v>395</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+      <c r="D199" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A200" t="s">
+        <v>396</v>
+      </c>
+      <c r="B200" t="s">
+        <v>397</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+      <c r="D200" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A201" t="s">
+        <v>398</v>
+      </c>
+      <c r="B201" t="s">
+        <v>399</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A202" t="s">
+        <v>400</v>
+      </c>
+      <c r="B202" t="s">
+        <v>401</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="D202" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A203" t="s">
+        <v>402</v>
+      </c>
+      <c r="B203" t="s">
+        <v>403</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A204" t="s">
+        <v>404</v>
+      </c>
+      <c r="B204" t="s">
+        <v>405</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+      <c r="D204" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A205" t="s">
+        <v>406</v>
+      </c>
+      <c r="B205" t="s">
+        <v>407</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A206" t="s">
+        <v>408</v>
+      </c>
+      <c r="B206" t="s">
+        <v>409</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+      <c r="D206" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A207" t="s">
+        <v>410</v>
+      </c>
+      <c r="B207" t="s">
+        <v>411</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A208" t="s">
+        <v>412</v>
+      </c>
+      <c r="B208" t="s">
+        <v>413</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A209" t="s">
+        <v>414</v>
+      </c>
+      <c r="B209" t="s">
+        <v>415</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="D209" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A210" t="s">
+        <v>416</v>
+      </c>
+      <c r="B210" t="s">
+        <v>417</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A211" t="s">
+        <v>418</v>
+      </c>
+      <c r="B211" t="s">
+        <v>419</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="D211" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A212" t="s">
+        <v>420</v>
+      </c>
+      <c r="B212" t="s">
+        <v>421</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A213" t="s">
+        <v>422</v>
+      </c>
+      <c r="B213" t="s">
+        <v>423</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+      <c r="D213" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A214" t="s">
+        <v>424</v>
+      </c>
+      <c r="B214" t="s">
+        <v>425</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+      <c r="D214" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A215" t="s">
+        <v>426</v>
+      </c>
+      <c r="B215" t="s">
+        <v>427</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+      <c r="D215" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A216" t="s">
+        <v>428</v>
+      </c>
+      <c r="B216" t="s">
+        <v>429</v>
+      </c>
+      <c r="C216">
+        <v>1</v>
+      </c>
+      <c r="D216" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A217" t="s">
+        <v>430</v>
+      </c>
+      <c r="B217" t="s">
+        <v>431</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+      <c r="D217" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A218" t="s">
+        <v>432</v>
+      </c>
+      <c r="B218" t="s">
+        <v>433</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+      <c r="D218" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE949D2-F99D-4CAF-85D0-EEE8FDE4F5CB}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E379736E-AEF6-4880-BCC8-DFD07670FC02}">
   <dimension ref="A1:B133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>1081</v>
+        <v>1342</v>
       </c>
       <c r="B1" t="s">
-        <v>1082</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -14463,7 +17613,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="B109" t="s">
         <v>1062</v>
@@ -14551,7 +17701,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="B120" t="s">
         <v>1067</v>
@@ -14559,7 +17709,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="B121" t="s">
         <v>1068</v>
@@ -14567,7 +17717,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="B122" t="s">
         <v>1069</v>
@@ -14575,7 +17725,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="B123" t="s">
         <v>1070</v>
@@ -14583,7 +17733,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="B124" t="s">
         <v>1071</v>
@@ -14591,7 +17741,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="B125" t="s">
         <v>1072</v>
@@ -14599,7 +17749,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="B126" t="s">
         <v>1073</v>
@@ -14666,7 +17816,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186748BD-FE1A-4F85-84AF-EE7AA794CE26}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -14676,10 +17826,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
       <c r="B1" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -14711,7 +17861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC34239-5695-4479-909A-42A785991773}">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -14729,16 +17879,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C1" t="s">
         <v>1354</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1355</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1360</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1361</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -14746,13 +17896,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1357</v>
+        <v>1351</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>1362</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -14760,13 +17910,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>1356</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1362</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -14774,13 +17924,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>1362</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -14788,13 +17938,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -14802,13 +17952,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -14816,13 +17966,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>1365</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -14830,13 +17980,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>1365</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -14844,13 +17994,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>1363</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
@@ -14858,13 +18008,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="C10">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>1366</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -14872,13 +18022,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="C11">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -14886,13 +18036,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
       <c r="C12">
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
     </row>
   </sheetData>

--- a/datos/CLASIFICACIONES.xlsx
+++ b/datos/CLASIFICACIONES.xlsx
@@ -8,21 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renato\GitHub\scn_scae_gt\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A229313-B91E-48B2-A81E-DB3AE68F97D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D93797-81F8-4097-946F-3E48502A13FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="711" yWindow="-103" windowWidth="21335" windowHeight="12549" activeTab="5" xr2:uid="{C22BA8DC-7785-47D2-AF50-A04A94E3F417}"/>
+    <workbookView xWindow="711" yWindow="-103" windowWidth="21335" windowHeight="12549" activeTab="8" xr2:uid="{C22BA8DC-7785-47D2-AF50-A04A94E3F417}"/>
   </bookViews>
   <sheets>
     <sheet name="columnas" sheetId="3" r:id="rId1"/>
     <sheet name="filas" sheetId="1" r:id="rId2"/>
     <sheet name="ntg2" sheetId="5" r:id="rId3"/>
-    <sheet name="npg" sheetId="6" r:id="rId4"/>
-    <sheet name="energia" sheetId="9" r:id="rId5"/>
-    <sheet name="cuadros" sheetId="10" r:id="rId6"/>
-    <sheet name="naeg" sheetId="4" r:id="rId7"/>
+    <sheet name="naeg" sheetId="4" r:id="rId4"/>
+    <sheet name="npg" sheetId="6" r:id="rId5"/>
+    <sheet name="energia" sheetId="9" r:id="rId6"/>
+    <sheet name="cuadros" sheetId="10" r:id="rId7"/>
     <sheet name="areas_filas" sheetId="7" r:id="rId8"/>
     <sheet name="areas_columnas" sheetId="8" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">energia!$A$1:$E$218</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2898" uniqueCount="1375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2913" uniqueCount="1383">
   <si>
     <t>P0101</t>
   </si>
@@ -4120,9 +4123,6 @@
     <t>Márgenes</t>
   </si>
   <si>
-    <t>Impoortaciones de bienes y servicios</t>
-  </si>
-  <si>
     <t>Impuestos y subvenciones</t>
   </si>
   <si>
@@ -4169,6 +4169,33 @@
   </si>
   <si>
     <t>Utilización</t>
+  </si>
+  <si>
+    <t>npg4EnergiaCorto</t>
+  </si>
+  <si>
+    <t>Forestales no madereros</t>
+  </si>
+  <si>
+    <t>Carbón mineral</t>
+  </si>
+  <si>
+    <t>Gases de petróleo</t>
+  </si>
+  <si>
+    <t>Otros refinados de petróleo</t>
+  </si>
+  <si>
+    <t>Desechos de la industria alimenticia</t>
+  </si>
+  <si>
+    <t>Energía eléctrica</t>
+  </si>
+  <si>
+    <t>corr_ntg</t>
+  </si>
+  <si>
+    <t>corr_ntg2</t>
   </si>
 </sst>
 </file>
@@ -4536,7 +4563,7 @@
   <dimension ref="A1:D333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4549,7 +4576,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B1" t="s">
         <v>1341</v>
@@ -11386,476 +11413,674 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05E38F5-79ED-4AF1-BD6D-0CBD9E0C28A7}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="72.61328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B1" t="s">
         <v>1341</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E1" t="s">
         <v>1368</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>1369</v>
       </c>
-      <c r="D1" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>1255</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>1257</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>1281</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>1282</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>1256</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>1258</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>1281</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>1282</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>1259</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>1260</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
         <v>1281</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>1282</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>1308</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>1334</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
         <v>1283</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>1309</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>1335</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
         <v>1283</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>1310</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>1336</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
         <v>1283</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>1265</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>1280</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
         <v>1285</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>1286</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>1266</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>1276</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
         <v>1285</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>1286</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>1267</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>1277</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
         <v>1285</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>1286</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>1278</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>1274</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
         <v>1285</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>1286</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>1279</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>1275</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
         <v>1285</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>1286</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>1289</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>1311</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
         <v>1287</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>1288</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>1290</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>1312</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
         <v>1287</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>1288</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>1268</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>1269</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
         <v>1291</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>1353</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>1292</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>1313</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
         <v>1291</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>1353</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>1270</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>1271</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
         <v>1291</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
         <v>1353</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>1272</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>1273</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
         <v>1291</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
         <v>1353</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
         <v>1261</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>1262</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
         <v>1293</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>1294</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>1263</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>1264</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
         <v>1293</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
         <v>1294</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>1297</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>1314</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
         <v>1295</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
         <v>1296</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>1298</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>1315</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
         <v>1295</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
         <v>1296</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
         <v>1300</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>1322</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
         <v>1299</v>
       </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
         <v>1321</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
         <v>1301</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>1323</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
         <v>1299</v>
       </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
         <v>1321</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
         <v>1302</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>1324</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
         <v>1299</v>
       </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
         <v>1321</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
         <v>1303</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>1325</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
         <v>1299</v>
       </c>
-      <c r="D26" t="s">
+      <c r="F26" t="s">
         <v>1321</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
         <v>1320</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>1319</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
         <v>1304</v>
       </c>
-      <c r="D27" t="s">
+      <c r="F27" t="s">
         <v>1319</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
         <v>1306</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>1316</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
         <v>1305</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
         <v>1318</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
         <v>1307</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>1317</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
         <v>1305</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F29" t="s">
         <v>1318</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
         <v>1326</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>1329</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
         <v>1332</v>
       </c>
-      <c r="D30" t="s">
+      <c r="F30" t="s">
         <v>1333</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
         <v>1327</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>1330</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
         <v>1332</v>
       </c>
-      <c r="D31" t="s">
+      <c r="F31" t="s">
         <v>1333</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
         <v>1328</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>1331</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
         <v>1332</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F32" t="s">
         <v>1333</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
         <v>1339</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>1340</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
         <v>1339</v>
       </c>
-      <c r="D33" t="s">
+      <c r="F33" t="s">
         <v>1340</v>
       </c>
     </row>
@@ -11865,6 +12090,1085 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E379736E-AEF6-4880-BCC8-DFD07670FC02}">
+  <dimension ref="A1:B133"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>660</v>
+      </c>
+      <c r="B2" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>661</v>
+      </c>
+      <c r="B3" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>663</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>664</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>666</v>
+      </c>
+      <c r="B6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>667</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>669</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>671</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>672</v>
+      </c>
+      <c r="B10" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>674</v>
+      </c>
+      <c r="B11" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>676</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>677</v>
+      </c>
+      <c r="B13" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>678</v>
+      </c>
+      <c r="B14" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>680</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>681</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>682</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>683</v>
+      </c>
+      <c r="B18" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>684</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>686</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>688</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>689</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>691</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>692</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>694</v>
+      </c>
+      <c r="B25" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>696</v>
+      </c>
+      <c r="B26" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>698</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>700</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>702</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>704</v>
+      </c>
+      <c r="B30" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>706</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>707</v>
+      </c>
+      <c r="B32" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>709</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>711</v>
+      </c>
+      <c r="B34" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>713</v>
+      </c>
+      <c r="B35" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>714</v>
+      </c>
+      <c r="B36" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>716</v>
+      </c>
+      <c r="B37" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>717</v>
+      </c>
+      <c r="B38" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>718</v>
+      </c>
+      <c r="B39" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>719</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>721</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>722</v>
+      </c>
+      <c r="B42" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>723</v>
+      </c>
+      <c r="B43" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>725</v>
+      </c>
+      <c r="B44" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>726</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>727</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>729</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>731</v>
+      </c>
+      <c r="B48" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>732</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>733</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>735</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>736</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>738</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>739</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>741</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>743</v>
+      </c>
+      <c r="B56" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>745</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>747</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>748</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>749</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>750</v>
+      </c>
+      <c r="B61" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>752</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>754</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>756</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>757</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>759</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>761</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>763</v>
+      </c>
+      <c r="B68" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>764</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>765</v>
+      </c>
+      <c r="B70" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>767</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>768</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>770</v>
+      </c>
+      <c r="B73" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>772</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>774</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>775</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>777</v>
+      </c>
+      <c r="B77" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>779</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>780</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>781</v>
+      </c>
+      <c r="B80" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>783</v>
+      </c>
+      <c r="B81" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>784</v>
+      </c>
+      <c r="B82" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>786</v>
+      </c>
+      <c r="B83" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>788</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>790</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>791</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>793</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>794</v>
+      </c>
+      <c r="B88" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>795</v>
+      </c>
+      <c r="B89" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>796</v>
+      </c>
+      <c r="B90" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>797</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>798</v>
+      </c>
+      <c r="B92" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>799</v>
+      </c>
+      <c r="B93" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>800</v>
+      </c>
+      <c r="B94" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>801</v>
+      </c>
+      <c r="B95" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
+        <v>802</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
+        <v>803</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>804</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
+        <v>805</v>
+      </c>
+      <c r="B99" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>806</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
+        <v>807</v>
+      </c>
+      <c r="B101" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A102" t="s">
+        <v>808</v>
+      </c>
+      <c r="B102" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A103" t="s">
+        <v>809</v>
+      </c>
+      <c r="B103" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A104" t="s">
+        <v>810</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
+        <v>811</v>
+      </c>
+      <c r="B105" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A106" t="s">
+        <v>812</v>
+      </c>
+      <c r="B106" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A107" t="s">
+        <v>980</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A108" t="s">
+        <v>981</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A109" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A110" t="s">
+        <v>982</v>
+      </c>
+      <c r="B110" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
+        <v>983</v>
+      </c>
+      <c r="B111" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
+        <v>984</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A113" t="s">
+        <v>985</v>
+      </c>
+      <c r="B113" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A114" t="s">
+        <v>986</v>
+      </c>
+      <c r="B114" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A115" t="s">
+        <v>987</v>
+      </c>
+      <c r="B115" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A116" t="s">
+        <v>988</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A117" t="s">
+        <v>989</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A118" t="s">
+        <v>990</v>
+      </c>
+      <c r="B118" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A119" t="s">
+        <v>991</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A120" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A121" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A122" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A123" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A124" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A125" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A126" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A127" t="s">
+        <v>992</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A128" t="s">
+        <v>993</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A129" t="s">
+        <v>994</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A130" t="s">
+        <v>995</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A131" t="s">
+        <v>996</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A132" t="s">
+        <v>997</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A133" t="s">
+        <v>998</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D1C4B1-99FA-4847-8C6B-549B844D73AF}">
   <dimension ref="A1:B218"/>
   <sheetViews>
@@ -13626,24 +14930,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5771528-5385-4372-93C5-35F6DE420C38}">
-  <dimension ref="A1:D218"/>
+  <dimension ref="A1:E218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A44" sqref="A44"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="40.53515625" customWidth="1"/>
     <col min="4" max="4" width="16.3046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1346</v>
       </c>
@@ -13651,13 +14956,16 @@
         <v>1347</v>
       </c>
       <c r="C1" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="D1" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1361</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -13668,10 +14976,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -13682,10 +14990,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -13696,10 +15004,10 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -13710,10 +15018,10 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -13724,10 +15032,10 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -13738,10 +15046,10 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -13752,10 +15060,10 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -13766,10 +15074,10 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -13780,10 +15088,10 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -13794,10 +15102,10 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -13808,10 +15116,10 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -13822,10 +15130,10 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -13836,10 +15144,10 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -13850,10 +15158,10 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -13864,7 +15172,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
@@ -13878,7 +15186,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -13892,7 +15200,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -13906,7 +15214,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -13920,7 +15228,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
@@ -13934,7 +15242,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
@@ -13948,7 +15256,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
@@ -13962,7 +15270,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
@@ -13976,7 +15284,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
@@ -13990,7 +15298,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
@@ -14004,7 +15312,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
@@ -14018,7 +15326,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
@@ -14032,7 +15340,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
@@ -14046,7 +15354,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
@@ -14060,7 +15368,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
@@ -14074,7 +15382,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
@@ -14088,10 +15396,10 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -14102,10 +15410,10 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -14116,10 +15424,10 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -14130,10 +15438,10 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>68</v>
       </c>
@@ -14144,10 +15452,10 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -14158,10 +15466,10 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>72</v>
       </c>
@@ -14172,10 +15480,10 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>74</v>
       </c>
@@ -14186,10 +15494,13 @@
         <v>2</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1364</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
@@ -14200,10 +15511,13 @@
         <v>2</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1364</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -14214,10 +15528,10 @@
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -14228,10 +15542,10 @@
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -14242,10 +15556,10 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>84</v>
       </c>
@@ -14256,10 +15570,13 @@
         <v>2</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1364</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>86</v>
       </c>
@@ -14270,10 +15587,10 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -14284,10 +15601,10 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>90</v>
       </c>
@@ -14298,10 +15615,13 @@
         <v>2</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1364</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>92</v>
       </c>
@@ -14312,7 +15632,7 @@
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
@@ -14326,7 +15646,7 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
@@ -14340,7 +15660,7 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
@@ -14354,7 +15674,7 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
@@ -14368,7 +15688,7 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
@@ -14382,7 +15702,7 @@
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
@@ -14396,7 +15716,7 @@
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
@@ -14410,7 +15730,7 @@
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
@@ -14424,7 +15744,7 @@
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
@@ -14438,7 +15758,7 @@
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
@@ -14452,7 +15772,7 @@
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
@@ -14466,7 +15786,7 @@
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
@@ -14480,7 +15800,7 @@
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
@@ -14494,7 +15814,7 @@
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
@@ -14508,7 +15828,7 @@
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
@@ -14522,7 +15842,7 @@
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
@@ -14536,7 +15856,7 @@
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
@@ -14550,7 +15870,7 @@
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
@@ -14564,7 +15884,7 @@
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
@@ -14578,7 +15898,7 @@
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
@@ -14592,7 +15912,7 @@
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
@@ -14606,7 +15926,7 @@
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
@@ -14620,7 +15940,7 @@
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
@@ -14634,7 +15954,7 @@
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
@@ -14648,7 +15968,7 @@
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
@@ -14662,7 +15982,7 @@
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
@@ -14676,7 +15996,7 @@
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
@@ -14690,7 +16010,7 @@
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
@@ -14704,7 +16024,7 @@
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.4">
@@ -14718,7 +16038,7 @@
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
@@ -14732,7 +16052,7 @@
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
@@ -14746,7 +16066,7 @@
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
@@ -14760,7 +16080,7 @@
         <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.4">
@@ -14774,7 +16094,7 @@
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
@@ -14788,7 +16108,7 @@
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.4">
@@ -14802,7 +16122,7 @@
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
@@ -14816,7 +16136,7 @@
         <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
@@ -14830,7 +16150,7 @@
         <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.4">
@@ -14844,7 +16164,7 @@
         <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.4">
@@ -14858,7 +16178,7 @@
         <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.4">
@@ -14872,7 +16192,7 @@
         <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.4">
@@ -14886,7 +16206,7 @@
         <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.4">
@@ -14900,7 +16220,7 @@
         <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.4">
@@ -14914,7 +16234,7 @@
         <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.4">
@@ -14928,7 +16248,7 @@
         <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
@@ -14942,7 +16262,7 @@
         <v>1</v>
       </c>
       <c r="D93" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.4">
@@ -14956,7 +16276,7 @@
         <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.4">
@@ -14970,7 +16290,7 @@
         <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.4">
@@ -14984,10 +16304,10 @@
         <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>190</v>
       </c>
@@ -14998,10 +16318,10 @@
         <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>192</v>
       </c>
@@ -15012,10 +16332,10 @@
         <v>1</v>
       </c>
       <c r="D98" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
         <v>194</v>
       </c>
@@ -15026,10 +16346,13 @@
         <v>3</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1365</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
         <v>196</v>
       </c>
@@ -15040,10 +16363,13 @@
         <v>3</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1365</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
         <v>198</v>
       </c>
@@ -15054,10 +16380,13 @@
         <v>3</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1365</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
         <v>200</v>
       </c>
@@ -15065,13 +16394,14 @@
         <v>201</v>
       </c>
       <c r="C102" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1363</v>
+      </c>
+      <c r="E102" s="1"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
         <v>202</v>
       </c>
@@ -15082,10 +16412,13 @@
         <v>3</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1365</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
         <v>204</v>
       </c>
@@ -15096,10 +16429,13 @@
         <v>3</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1365</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
         <v>206</v>
       </c>
@@ -15110,10 +16446,13 @@
         <v>3</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1365</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>208</v>
       </c>
@@ -15124,10 +16463,10 @@
         <v>1</v>
       </c>
       <c r="D106" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>210</v>
       </c>
@@ -15138,10 +16477,10 @@
         <v>1</v>
       </c>
       <c r="D107" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>212</v>
       </c>
@@ -15152,10 +16491,10 @@
         <v>1</v>
       </c>
       <c r="D108" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>214</v>
       </c>
@@ -15166,10 +16505,10 @@
         <v>1</v>
       </c>
       <c r="D109" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>216</v>
       </c>
@@ -15180,10 +16519,10 @@
         <v>1</v>
       </c>
       <c r="D110" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>218</v>
       </c>
@@ -15194,10 +16533,10 @@
         <v>1</v>
       </c>
       <c r="D111" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>220</v>
       </c>
@@ -15208,7 +16547,7 @@
         <v>1</v>
       </c>
       <c r="D112" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.4">
@@ -15222,7 +16561,7 @@
         <v>1</v>
       </c>
       <c r="D113" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.4">
@@ -15236,7 +16575,7 @@
         <v>1</v>
       </c>
       <c r="D114" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.4">
@@ -15250,7 +16589,7 @@
         <v>1</v>
       </c>
       <c r="D115" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.4">
@@ -15264,7 +16603,7 @@
         <v>1</v>
       </c>
       <c r="D116" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.4">
@@ -15278,7 +16617,7 @@
         <v>1</v>
       </c>
       <c r="D117" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.4">
@@ -15292,7 +16631,7 @@
         <v>1</v>
       </c>
       <c r="D118" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.4">
@@ -15306,7 +16645,7 @@
         <v>1</v>
       </c>
       <c r="D119" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.4">
@@ -15320,7 +16659,7 @@
         <v>1</v>
       </c>
       <c r="D120" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.4">
@@ -15334,7 +16673,7 @@
         <v>1</v>
       </c>
       <c r="D121" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.4">
@@ -15348,7 +16687,7 @@
         <v>1</v>
       </c>
       <c r="D122" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.4">
@@ -15362,7 +16701,7 @@
         <v>1</v>
       </c>
       <c r="D123" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.4">
@@ -15376,7 +16715,7 @@
         <v>1</v>
       </c>
       <c r="D124" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.4">
@@ -15390,7 +16729,7 @@
         <v>1</v>
       </c>
       <c r="D125" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.4">
@@ -15404,7 +16743,7 @@
         <v>1</v>
       </c>
       <c r="D126" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.4">
@@ -15418,7 +16757,7 @@
         <v>1</v>
       </c>
       <c r="D127" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.4">
@@ -15432,10 +16771,10 @@
         <v>1</v>
       </c>
       <c r="D128" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>254</v>
       </c>
@@ -15446,10 +16785,10 @@
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>256</v>
       </c>
@@ -15460,10 +16799,10 @@
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>258</v>
       </c>
@@ -15474,10 +16813,10 @@
         <v>1</v>
       </c>
       <c r="D131" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>260</v>
       </c>
@@ -15488,10 +16827,10 @@
         <v>1</v>
       </c>
       <c r="D132" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>262</v>
       </c>
@@ -15502,10 +16841,10 @@
         <v>1</v>
       </c>
       <c r="D133" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>264</v>
       </c>
@@ -15516,10 +16855,10 @@
         <v>1</v>
       </c>
       <c r="D134" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>266</v>
       </c>
@@ -15530,10 +16869,10 @@
         <v>1</v>
       </c>
       <c r="D135" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>268</v>
       </c>
@@ -15544,10 +16883,10 @@
         <v>1</v>
       </c>
       <c r="D136" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>270</v>
       </c>
@@ -15558,10 +16897,10 @@
         <v>1</v>
       </c>
       <c r="D137" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>272</v>
       </c>
@@ -15572,10 +16911,10 @@
         <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A139" s="1" t="s">
         <v>274</v>
       </c>
@@ -15586,10 +16925,13 @@
         <v>2</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1364</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>276</v>
       </c>
@@ -15600,10 +16942,10 @@
         <v>1</v>
       </c>
       <c r="D140" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>278</v>
       </c>
@@ -15614,10 +16956,10 @@
         <v>1</v>
       </c>
       <c r="D141" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>280</v>
       </c>
@@ -15628,10 +16970,10 @@
         <v>1</v>
       </c>
       <c r="D142" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A143" s="1" t="s">
         <v>282</v>
       </c>
@@ -15642,10 +16984,13 @@
         <v>3</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1365</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>284</v>
       </c>
@@ -15656,7 +17001,7 @@
         <v>1</v>
       </c>
       <c r="D144" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.4">
@@ -15670,7 +17015,7 @@
         <v>1</v>
       </c>
       <c r="D145" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.4">
@@ -15684,7 +17029,7 @@
         <v>1</v>
       </c>
       <c r="D146" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.4">
@@ -15698,7 +17043,7 @@
         <v>1</v>
       </c>
       <c r="D147" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.4">
@@ -15712,7 +17057,7 @@
         <v>1</v>
       </c>
       <c r="D148" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.4">
@@ -15726,7 +17071,7 @@
         <v>1</v>
       </c>
       <c r="D149" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.4">
@@ -15740,7 +17085,7 @@
         <v>1</v>
       </c>
       <c r="D150" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.4">
@@ -15754,7 +17099,7 @@
         <v>1</v>
       </c>
       <c r="D151" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.4">
@@ -15768,7 +17113,7 @@
         <v>1</v>
       </c>
       <c r="D152" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.4">
@@ -15782,7 +17127,7 @@
         <v>1</v>
       </c>
       <c r="D153" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.4">
@@ -15796,7 +17141,7 @@
         <v>1</v>
       </c>
       <c r="D154" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.4">
@@ -15810,7 +17155,7 @@
         <v>1</v>
       </c>
       <c r="D155" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.4">
@@ -15824,7 +17169,7 @@
         <v>1</v>
       </c>
       <c r="D156" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.4">
@@ -15838,7 +17183,7 @@
         <v>1</v>
       </c>
       <c r="D157" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.4">
@@ -15852,7 +17197,7 @@
         <v>1</v>
       </c>
       <c r="D158" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.4">
@@ -15866,7 +17211,7 @@
         <v>1</v>
       </c>
       <c r="D159" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.4">
@@ -15880,7 +17225,7 @@
         <v>1</v>
       </c>
       <c r="D160" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.4">
@@ -15894,7 +17239,7 @@
         <v>1</v>
       </c>
       <c r="D161" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.4">
@@ -15908,7 +17253,7 @@
         <v>1</v>
       </c>
       <c r="D162" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.4">
@@ -15922,7 +17267,7 @@
         <v>1</v>
       </c>
       <c r="D163" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.4">
@@ -15936,7 +17281,7 @@
         <v>1</v>
       </c>
       <c r="D164" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.4">
@@ -15950,7 +17295,7 @@
         <v>1</v>
       </c>
       <c r="D165" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.4">
@@ -15964,7 +17309,7 @@
         <v>1</v>
       </c>
       <c r="D166" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.4">
@@ -15978,7 +17323,7 @@
         <v>1</v>
       </c>
       <c r="D167" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.4">
@@ -15992,7 +17337,7 @@
         <v>1</v>
       </c>
       <c r="D168" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.4">
@@ -16006,7 +17351,7 @@
         <v>1</v>
       </c>
       <c r="D169" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.4">
@@ -16020,7 +17365,7 @@
         <v>1</v>
       </c>
       <c r="D170" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.4">
@@ -16034,7 +17379,7 @@
         <v>1</v>
       </c>
       <c r="D171" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.4">
@@ -16048,7 +17393,7 @@
         <v>1</v>
       </c>
       <c r="D172" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.4">
@@ -16062,7 +17407,7 @@
         <v>1</v>
       </c>
       <c r="D173" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.4">
@@ -16076,7 +17421,7 @@
         <v>1</v>
       </c>
       <c r="D174" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.4">
@@ -16090,7 +17435,7 @@
         <v>1</v>
       </c>
       <c r="D175" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.4">
@@ -16104,7 +17449,7 @@
         <v>1</v>
       </c>
       <c r="D176" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.4">
@@ -16118,7 +17463,7 @@
         <v>1</v>
       </c>
       <c r="D177" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.4">
@@ -16132,7 +17477,7 @@
         <v>1</v>
       </c>
       <c r="D178" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.4">
@@ -16146,7 +17491,7 @@
         <v>1</v>
       </c>
       <c r="D179" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.4">
@@ -16160,7 +17505,7 @@
         <v>1</v>
       </c>
       <c r="D180" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.4">
@@ -16174,7 +17519,7 @@
         <v>1</v>
       </c>
       <c r="D181" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.4">
@@ -16188,7 +17533,7 @@
         <v>1</v>
       </c>
       <c r="D182" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.4">
@@ -16202,7 +17547,7 @@
         <v>1</v>
       </c>
       <c r="D183" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.4">
@@ -16216,7 +17561,7 @@
         <v>1</v>
       </c>
       <c r="D184" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.4">
@@ -16230,7 +17575,7 @@
         <v>1</v>
       </c>
       <c r="D185" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.4">
@@ -16244,7 +17589,7 @@
         <v>1</v>
       </c>
       <c r="D186" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.4">
@@ -16258,7 +17603,7 @@
         <v>1</v>
       </c>
       <c r="D187" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.4">
@@ -16272,7 +17617,7 @@
         <v>1</v>
       </c>
       <c r="D188" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.4">
@@ -16286,7 +17631,7 @@
         <v>1</v>
       </c>
       <c r="D189" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.4">
@@ -16300,7 +17645,7 @@
         <v>1</v>
       </c>
       <c r="D190" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.4">
@@ -16314,7 +17659,7 @@
         <v>1</v>
       </c>
       <c r="D191" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.4">
@@ -16328,7 +17673,7 @@
         <v>1</v>
       </c>
       <c r="D192" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.4">
@@ -16342,7 +17687,7 @@
         <v>1</v>
       </c>
       <c r="D193" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.4">
@@ -16356,7 +17701,7 @@
         <v>1</v>
       </c>
       <c r="D194" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.4">
@@ -16370,7 +17715,7 @@
         <v>1</v>
       </c>
       <c r="D195" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.4">
@@ -16384,7 +17729,7 @@
         <v>1</v>
       </c>
       <c r="D196" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.4">
@@ -16398,7 +17743,7 @@
         <v>1</v>
       </c>
       <c r="D197" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.4">
@@ -16412,7 +17757,7 @@
         <v>1</v>
       </c>
       <c r="D198" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.4">
@@ -16426,7 +17771,7 @@
         <v>1</v>
       </c>
       <c r="D199" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.4">
@@ -16440,7 +17785,7 @@
         <v>1</v>
       </c>
       <c r="D200" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.4">
@@ -16454,7 +17799,7 @@
         <v>1</v>
       </c>
       <c r="D201" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.4">
@@ -16468,7 +17813,7 @@
         <v>1</v>
       </c>
       <c r="D202" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.4">
@@ -16482,7 +17827,7 @@
         <v>1</v>
       </c>
       <c r="D203" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.4">
@@ -16496,7 +17841,7 @@
         <v>1</v>
       </c>
       <c r="D204" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.4">
@@ -16510,7 +17855,7 @@
         <v>1</v>
       </c>
       <c r="D205" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.4">
@@ -16524,7 +17869,7 @@
         <v>1</v>
       </c>
       <c r="D206" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.4">
@@ -16538,7 +17883,7 @@
         <v>1</v>
       </c>
       <c r="D207" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.4">
@@ -16552,7 +17897,7 @@
         <v>1</v>
       </c>
       <c r="D208" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.4">
@@ -16566,7 +17911,7 @@
         <v>1</v>
       </c>
       <c r="D209" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.4">
@@ -16580,7 +17925,7 @@
         <v>1</v>
       </c>
       <c r="D210" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.4">
@@ -16594,7 +17939,7 @@
         <v>1</v>
       </c>
       <c r="D211" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.4">
@@ -16608,7 +17953,7 @@
         <v>1</v>
       </c>
       <c r="D212" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.4">
@@ -16622,7 +17967,7 @@
         <v>1</v>
       </c>
       <c r="D213" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.4">
@@ -16636,7 +17981,7 @@
         <v>1</v>
       </c>
       <c r="D214" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.4">
@@ -16650,7 +17995,7 @@
         <v>1</v>
       </c>
       <c r="D215" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.4">
@@ -16664,7 +18009,7 @@
         <v>1</v>
       </c>
       <c r="D216" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.4">
@@ -16678,7 +18023,7 @@
         <v>1</v>
       </c>
       <c r="D217" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.4">
@@ -16692,44 +18037,7 @@
         <v>1</v>
       </c>
       <c r="D218" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE949D2-F99D-4CAF-85D0-EEE8FDE4F5CB}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>1371</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1374</v>
+        <v>1363</v>
       </c>
     </row>
   </sheetData>
@@ -16738,1077 +18046,35 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E379736E-AEF6-4880-BCC8-DFD07670FC02}">
-  <dimension ref="A1:B133"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE949D2-F99D-4CAF-85D0-EEE8FDE4F5CB}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>1342</v>
+        <v>1370</v>
       </c>
       <c r="B1" t="s">
-        <v>1367</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>660</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>999</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>661</v>
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>663</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>664</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>666</v>
-      </c>
-      <c r="B6" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>667</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>669</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>671</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>672</v>
-      </c>
-      <c r="B10" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>674</v>
-      </c>
-      <c r="B11" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>676</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>677</v>
-      </c>
-      <c r="B13" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>678</v>
-      </c>
-      <c r="B14" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>680</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>681</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>682</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>683</v>
-      </c>
-      <c r="B18" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>684</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>686</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>688</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>689</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>691</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>692</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>694</v>
-      </c>
-      <c r="B25" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>696</v>
-      </c>
-      <c r="B26" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>698</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>700</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>702</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>704</v>
-      </c>
-      <c r="B30" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>706</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>707</v>
-      </c>
-      <c r="B32" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>709</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>711</v>
-      </c>
-      <c r="B34" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>713</v>
-      </c>
-      <c r="B35" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>714</v>
-      </c>
-      <c r="B36" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>716</v>
-      </c>
-      <c r="B37" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>717</v>
-      </c>
-      <c r="B38" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>718</v>
-      </c>
-      <c r="B39" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
-        <v>719</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
-        <v>721</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
-        <v>722</v>
-      </c>
-      <c r="B42" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
-        <v>723</v>
-      </c>
-      <c r="B43" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
-        <v>725</v>
-      </c>
-      <c r="B44" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
-        <v>726</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
-        <v>727</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
-        <v>729</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
-        <v>731</v>
-      </c>
-      <c r="B48" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
-        <v>732</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
-        <v>733</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
-        <v>735</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
-        <v>736</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
-        <v>738</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
-        <v>739</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
-        <v>741</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
-        <v>743</v>
-      </c>
-      <c r="B56" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
-        <v>745</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
-        <v>747</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
-        <v>748</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A60" t="s">
-        <v>749</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A61" t="s">
-        <v>750</v>
-      </c>
-      <c r="B61" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A62" t="s">
-        <v>752</v>
-      </c>
-      <c r="B62" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A63" t="s">
-        <v>754</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A64" t="s">
-        <v>756</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A65" t="s">
-        <v>757</v>
-      </c>
-      <c r="B65" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A66" t="s">
-        <v>759</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A67" t="s">
-        <v>761</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A68" t="s">
-        <v>763</v>
-      </c>
-      <c r="B68" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A69" t="s">
-        <v>764</v>
-      </c>
-      <c r="B69" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A70" t="s">
-        <v>765</v>
-      </c>
-      <c r="B70" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A71" t="s">
-        <v>767</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A72" t="s">
-        <v>768</v>
-      </c>
-      <c r="B72" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A73" t="s">
-        <v>770</v>
-      </c>
-      <c r="B73" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A74" t="s">
-        <v>772</v>
-      </c>
-      <c r="B74" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A75" t="s">
-        <v>774</v>
-      </c>
-      <c r="B75" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A76" t="s">
-        <v>775</v>
-      </c>
-      <c r="B76" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A77" t="s">
-        <v>777</v>
-      </c>
-      <c r="B77" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A78" t="s">
-        <v>779</v>
-      </c>
-      <c r="B78" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A79" t="s">
-        <v>780</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A80" t="s">
-        <v>781</v>
-      </c>
-      <c r="B80" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A81" t="s">
-        <v>783</v>
-      </c>
-      <c r="B81" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A82" t="s">
-        <v>784</v>
-      </c>
-      <c r="B82" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A83" t="s">
-        <v>786</v>
-      </c>
-      <c r="B83" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A84" t="s">
-        <v>788</v>
-      </c>
-      <c r="B84" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A85" t="s">
-        <v>790</v>
-      </c>
-      <c r="B85" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A86" t="s">
-        <v>791</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A87" t="s">
-        <v>793</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A88" t="s">
-        <v>794</v>
-      </c>
-      <c r="B88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A89" t="s">
-        <v>795</v>
-      </c>
-      <c r="B89" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A90" t="s">
-        <v>796</v>
-      </c>
-      <c r="B90" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A91" t="s">
-        <v>797</v>
-      </c>
-      <c r="B91" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A92" t="s">
-        <v>798</v>
-      </c>
-      <c r="B92" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A93" t="s">
-        <v>799</v>
-      </c>
-      <c r="B93" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A94" t="s">
-        <v>800</v>
-      </c>
-      <c r="B94" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A95" t="s">
-        <v>801</v>
-      </c>
-      <c r="B95" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A96" t="s">
-        <v>802</v>
-      </c>
-      <c r="B96" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A97" t="s">
-        <v>803</v>
-      </c>
-      <c r="B97" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A98" t="s">
-        <v>804</v>
-      </c>
-      <c r="B98" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A99" t="s">
-        <v>805</v>
-      </c>
-      <c r="B99" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A100" t="s">
-        <v>806</v>
-      </c>
-      <c r="B100" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A101" t="s">
-        <v>807</v>
-      </c>
-      <c r="B101" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A102" t="s">
-        <v>808</v>
-      </c>
-      <c r="B102" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A103" t="s">
-        <v>809</v>
-      </c>
-      <c r="B103" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A104" t="s">
-        <v>810</v>
-      </c>
-      <c r="B104" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A105" t="s">
-        <v>811</v>
-      </c>
-      <c r="B105" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A106" t="s">
-        <v>812</v>
-      </c>
-      <c r="B106" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A107" t="s">
-        <v>980</v>
-      </c>
-      <c r="B107" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A108" t="s">
-        <v>981</v>
-      </c>
-      <c r="B108" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A109" t="s">
-        <v>1247</v>
-      </c>
-      <c r="B109" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A110" t="s">
-        <v>982</v>
-      </c>
-      <c r="B110" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A111" t="s">
-        <v>983</v>
-      </c>
-      <c r="B111" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A112" t="s">
-        <v>984</v>
-      </c>
-      <c r="B112" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A113" t="s">
-        <v>985</v>
-      </c>
-      <c r="B113" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A114" t="s">
-        <v>986</v>
-      </c>
-      <c r="B114" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A115" t="s">
-        <v>987</v>
-      </c>
-      <c r="B115" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A116" t="s">
-        <v>988</v>
-      </c>
-      <c r="B116" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A117" t="s">
-        <v>989</v>
-      </c>
-      <c r="B117" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A118" t="s">
-        <v>990</v>
-      </c>
-      <c r="B118" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A119" t="s">
-        <v>991</v>
-      </c>
-      <c r="B119" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A120" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B120" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A121" t="s">
-        <v>1249</v>
-      </c>
-      <c r="B121" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A122" t="s">
-        <v>1250</v>
-      </c>
-      <c r="B122" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A123" t="s">
-        <v>1251</v>
-      </c>
-      <c r="B123" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A124" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B124" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A125" t="s">
-        <v>1253</v>
-      </c>
-      <c r="B125" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A126" t="s">
-        <v>1254</v>
-      </c>
-      <c r="B126" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A127" t="s">
-        <v>992</v>
-      </c>
-      <c r="B127" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A128" t="s">
-        <v>993</v>
-      </c>
-      <c r="B128" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A129" t="s">
-        <v>994</v>
-      </c>
-      <c r="B129" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A130" t="s">
-        <v>995</v>
-      </c>
-      <c r="B130" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A131" t="s">
-        <v>996</v>
-      </c>
-      <c r="B131" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A132" t="s">
-        <v>997</v>
-      </c>
-      <c r="B132" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A133" t="s">
-        <v>998</v>
-      </c>
-      <c r="B133" t="s">
-        <v>1080</v>
+        <v>1373</v>
       </c>
     </row>
   </sheetData>
@@ -17865,8 +18131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC34239-5695-4479-909A-42A785991773}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -17944,7 +18210,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>1358</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -17958,7 +18224,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>1358</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -17972,7 +18238,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -17986,7 +18252,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -18014,7 +18280,7 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">

--- a/datos/CLASIFICACIONES.xlsx
+++ b/datos/CLASIFICACIONES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renato\GitHub\scn_scae_gt\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20002B13-A347-4B20-A71C-57C0D92D64E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705894C2-2CF6-4199-988C-D856812829BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="711" yWindow="-103" windowWidth="21335" windowHeight="12549" activeTab="2" xr2:uid="{C22BA8DC-7785-47D2-AF50-A04A94E3F417}"/>
+    <workbookView xWindow="3804" yWindow="-13068" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C22BA8DC-7785-47D2-AF50-A04A94E3F417}"/>
   </bookViews>
   <sheets>
     <sheet name="columnas" sheetId="3" r:id="rId1"/>
@@ -10481,7 +10481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05E38F5-79ED-4AF1-BD6D-0CBD9E0C28A7}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -12340,8 +12340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D1C4B1-99FA-4847-8C6B-549B844D73AF}">
   <dimension ref="A1:C218"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -13468,7 +13468,7 @@
         <v>201</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.4">
@@ -13501,7 +13501,7 @@
         <v>207</v>
       </c>
       <c r="C105" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.4">

--- a/datos/CLASIFICACIONES.xlsx
+++ b/datos/CLASIFICACIONES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renato\GitHub\scn_scae_gt\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705894C2-2CF6-4199-988C-D856812829BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7857D7E2-DF20-40B3-BA68-FE490C525A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3804" yWindow="-13068" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C22BA8DC-7785-47D2-AF50-A04A94E3F417}"/>
+    <workbookView xWindow="720" yWindow="-98" windowWidth="18578" windowHeight="10996" activeTab="4" xr2:uid="{C22BA8DC-7785-47D2-AF50-A04A94E3F417}"/>
   </bookViews>
   <sheets>
     <sheet name="columnas" sheetId="3" r:id="rId1"/>
@@ -4551,14 +4551,14 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.4609375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.07421875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1377</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>816</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>817</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>818</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>819</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>820</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>821</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>822</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>823</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>824</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>825</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>826</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>827</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>828</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>829</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>830</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>831</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>832</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>833</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>834</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>835</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>836</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>837</v>
       </c>
@@ -4811,7 +4811,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>838</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>839</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>840</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>841</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>842</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>843</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>844</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>845</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>846</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>847</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>848</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>849</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>850</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>851</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>852</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>853</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>854</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>855</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>856</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>857</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>858</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>859</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>860</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>861</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>862</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>863</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>864</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>865</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>866</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>867</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>868</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>869</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>870</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>871</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>872</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>873</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>874</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>875</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>876</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>877</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>878</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>879</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>880</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>881</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>882</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>883</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>884</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>885</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>886</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>887</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>888</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>889</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>890</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>891</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>892</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>893</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>894</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>895</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>896</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>897</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>898</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>899</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>900</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>901</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>902</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>903</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>904</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>905</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>906</v>
       </c>
@@ -5570,7 +5570,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>907</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>908</v>
       </c>
@@ -5592,7 +5592,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>909</v>
       </c>
@@ -5603,7 +5603,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>910</v>
       </c>
@@ -5614,7 +5614,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>911</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>912</v>
       </c>
@@ -5636,7 +5636,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>913</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>914</v>
       </c>
@@ -5658,7 +5658,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>915</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>916</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>917</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>918</v>
       </c>
@@ -5702,7 +5702,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>919</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>920</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>921</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>922</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>923</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>924</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>925</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>926</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>927</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>928</v>
       </c>
@@ -5812,7 +5812,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>929</v>
       </c>
@@ -5823,7 +5823,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>930</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>931</v>
       </c>
@@ -5845,7 +5845,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>932</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>933</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>934</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>935</v>
       </c>
@@ -5889,7 +5889,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>936</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>937</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>938</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>939</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>940</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>941</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>942</v>
       </c>
@@ -5966,7 +5966,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>943</v>
       </c>
@@ -5977,17 +5977,17 @@
         <v>605</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>946</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>947</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>948</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>949</v>
       </c>
@@ -6031,12 +6031,12 @@
         <v>606</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>951</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>952</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>953</v>
       </c>
@@ -6069,7 +6069,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>954</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>955</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>956</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>957</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>958</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>959</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>960</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>961</v>
       </c>
@@ -6157,27 +6157,27 @@
         <v>609</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>966</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>967</v>
       </c>
@@ -6193,12 +6193,12 @@
         <v>743</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>969</v>
       </c>
@@ -6206,12 +6206,12 @@
         <v>782</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>971</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>972</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>973</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>974</v>
       </c>
@@ -6243,12 +6243,12 @@
         <v>748</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>976</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>977</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>978</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>979</v>
       </c>
@@ -6280,17 +6280,17 @@
         <v>773</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>1209</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>1210</v>
       </c>
@@ -6312,7 +6312,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>1211</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>1212</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>1213</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>1214</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>1215</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>1216</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>1217</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>1218</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>1219</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>1220</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>1221</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>1222</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>1223</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>1224</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>1225</v>
       </c>
@@ -6477,7 +6477,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>1226</v>
       </c>
@@ -6488,7 +6488,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>1227</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>1228</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>1229</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>1230</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>1231</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>1232</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>1233</v>
       </c>
@@ -6565,7 +6565,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>1234</v>
       </c>
@@ -6576,7 +6576,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>1235</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>1236</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>1237</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>1238</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>1239</v>
       </c>
@@ -6631,7 +6631,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>1240</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>1241</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>1242</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>1243</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>1244</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>1245</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>1246</v>
       </c>
@@ -6708,7 +6708,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>1247</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>1248</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>1249</v>
       </c>
@@ -6741,7 +6741,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>1250</v>
       </c>
@@ -6752,7 +6752,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>1251</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>1252</v>
       </c>
@@ -6774,7 +6774,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>1253</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>1254</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>1255</v>
       </c>
@@ -6807,7 +6807,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>1256</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>1257</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>1258</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>1259</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>1260</v>
       </c>
@@ -6862,7 +6862,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>1261</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>1262</v>
       </c>
@@ -6884,7 +6884,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>1263</v>
       </c>
@@ -6895,7 +6895,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>1264</v>
       </c>
@@ -6906,7 +6906,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>1265</v>
       </c>
@@ -6917,7 +6917,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>1266</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>1267</v>
       </c>
@@ -6939,7 +6939,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>1268</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>1269</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>1270</v>
       </c>
@@ -6972,7 +6972,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>1271</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>1272</v>
       </c>
@@ -6994,7 +6994,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>1273</v>
       </c>
@@ -7005,7 +7005,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>1274</v>
       </c>
@@ -7016,7 +7016,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>1275</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>1276</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>1277</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>1278</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>1279</v>
       </c>
@@ -7071,7 +7071,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>1280</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>1281</v>
       </c>
@@ -7093,7 +7093,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>1282</v>
       </c>
@@ -7104,7 +7104,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>1283</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>1284</v>
       </c>
@@ -7126,7 +7126,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>1285</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>1286</v>
       </c>
@@ -7148,7 +7148,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>1287</v>
       </c>
@@ -7159,7 +7159,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>1288</v>
       </c>
@@ -7170,7 +7170,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>1289</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>1290</v>
       </c>
@@ -7192,7 +7192,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>1291</v>
       </c>
@@ -7203,7 +7203,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>1292</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>1293</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>1294</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>1295</v>
       </c>
@@ -7247,7 +7247,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
         <v>1296</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>1297</v>
       </c>
@@ -7269,7 +7269,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
         <v>1298</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
         <v>1299</v>
       </c>
@@ -7291,7 +7291,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
         <v>1300</v>
       </c>
@@ -7302,7 +7302,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
         <v>1301</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
         <v>1302</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
         <v>1303</v>
       </c>
@@ -7335,7 +7335,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
         <v>1304</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
         <v>1305</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
         <v>1306</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
         <v>1307</v>
       </c>
@@ -7379,7 +7379,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
         <v>1308</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
         <v>1309</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
         <v>1310</v>
       </c>
@@ -7412,7 +7412,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
         <v>1311</v>
       </c>
@@ -7423,7 +7423,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
         <v>1312</v>
       </c>
@@ -7434,7 +7434,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
         <v>1313</v>
       </c>
@@ -7445,7 +7445,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
         <v>1314</v>
       </c>
@@ -7456,7 +7456,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
         <v>1315</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
         <v>1316</v>
       </c>
@@ -7478,7 +7478,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
         <v>1317</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
         <v>1318</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
         <v>1319</v>
       </c>
@@ -7511,7 +7511,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
         <v>1320</v>
       </c>
@@ -7522,7 +7522,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
         <v>1321</v>
       </c>
@@ -7533,7 +7533,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
         <v>1322</v>
       </c>
@@ -7544,7 +7544,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
         <v>1323</v>
       </c>
@@ -7555,7 +7555,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
         <v>1324</v>
       </c>
@@ -7566,7 +7566,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
         <v>1325</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
         <v>1326</v>
       </c>
@@ -7588,7 +7588,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
         <v>1327</v>
       </c>
@@ -7599,7 +7599,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
         <v>1328</v>
       </c>
@@ -7610,7 +7610,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
         <v>1329</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
         <v>1330</v>
       </c>
@@ -7632,7 +7632,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
         <v>1331</v>
       </c>
@@ -7643,7 +7643,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
         <v>1332</v>
       </c>
@@ -7654,7 +7654,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
         <v>1333</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
         <v>1334</v>
       </c>
@@ -7676,7 +7676,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
         <v>1335</v>
       </c>
@@ -7687,7 +7687,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
         <v>1336</v>
       </c>
@@ -7698,17 +7698,17 @@
         <v>605</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
         <v>1337</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
         <v>1338</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
         <v>1339</v>
       </c>
@@ -7719,7 +7719,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
         <v>1340</v>
       </c>
@@ -7730,7 +7730,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
         <v>1341</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
         <v>1342</v>
       </c>
@@ -7752,12 +7752,12 @@
         <v>606</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
         <v>1343</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
         <v>1344</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
         <v>1345</v>
       </c>
@@ -7779,7 +7779,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
         <v>1346</v>
       </c>
@@ -7790,7 +7790,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A306" t="s">
         <v>1347</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
         <v>1348</v>
       </c>
@@ -7812,7 +7812,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
         <v>1349</v>
       </c>
@@ -7823,7 +7823,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A309" t="s">
         <v>1350</v>
       </c>
@@ -7834,7 +7834,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A310" t="s">
         <v>1351</v>
       </c>
@@ -7845,7 +7845,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A311" t="s">
         <v>1352</v>
       </c>
@@ -7856,7 +7856,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A312" t="s">
         <v>1353</v>
       </c>
@@ -7867,7 +7867,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A313" t="s">
         <v>1354</v>
       </c>
@@ -7878,27 +7878,27 @@
         <v>609</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A314" t="s">
         <v>1355</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A316" t="s">
         <v>1357</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A317" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A318" t="s">
         <v>1359</v>
       </c>
@@ -7906,7 +7906,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A319" t="s">
         <v>1360</v>
       </c>
@@ -7914,12 +7914,12 @@
         <v>708</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A320" t="s">
         <v>1361</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
         <v>1362</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A322" t="s">
         <v>1363</v>
       </c>
@@ -7935,7 +7935,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A323" t="s">
         <v>1364</v>
       </c>
@@ -7943,12 +7943,12 @@
         <v>712</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A324" t="s">
         <v>1365</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A325" t="s">
         <v>1366</v>
       </c>
@@ -7956,7 +7956,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A326" t="s">
         <v>1367</v>
       </c>
@@ -7964,17 +7964,17 @@
         <v>724</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A327" t="s">
         <v>1368</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A328" t="s">
         <v>1369</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A329" t="s">
         <v>1370</v>
       </c>
@@ -7982,7 +7982,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A330" t="s">
         <v>1371</v>
       </c>
@@ -7990,7 +7990,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A331" t="s">
         <v>1372</v>
       </c>
@@ -7998,12 +7998,12 @@
         <v>717</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A332" t="s">
         <v>1373</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A333" t="s">
         <v>1374</v>
       </c>
@@ -8018,16 +8018,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630F3B5A-7724-4218-8CEA-54B103D0974A}">
   <dimension ref="A1:C226"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143:C143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="11.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>786</v>
       </c>
@@ -8038,7 +8038,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>982</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>983</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>984</v>
       </c>
@@ -8071,7 +8071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>985</v>
       </c>
@@ -8082,7 +8082,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>986</v>
       </c>
@@ -8093,7 +8093,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>987</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>988</v>
       </c>
@@ -8115,7 +8115,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>989</v>
       </c>
@@ -8126,7 +8126,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>990</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>991</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>992</v>
       </c>
@@ -8159,7 +8159,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>993</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>994</v>
       </c>
@@ -8181,7 +8181,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>995</v>
       </c>
@@ -8192,7 +8192,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>996</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>997</v>
       </c>
@@ -8214,7 +8214,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>998</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>999</v>
       </c>
@@ -8236,7 +8236,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>1000</v>
       </c>
@@ -8247,7 +8247,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>1001</v>
       </c>
@@ -8258,7 +8258,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>1002</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>1003</v>
       </c>
@@ -8280,7 +8280,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>1004</v>
       </c>
@@ -8291,7 +8291,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>1005</v>
       </c>
@@ -8302,7 +8302,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>1006</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>1007</v>
       </c>
@@ -8324,7 +8324,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>1008</v>
       </c>
@@ -8335,7 +8335,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>1009</v>
       </c>
@@ -8346,7 +8346,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>1010</v>
       </c>
@@ -8357,7 +8357,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>1011</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>1012</v>
       </c>
@@ -8379,7 +8379,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>1013</v>
       </c>
@@ -8390,7 +8390,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>1014</v>
       </c>
@@ -8401,7 +8401,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>1015</v>
       </c>
@@ -8412,7 +8412,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>1016</v>
       </c>
@@ -8423,7 +8423,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>1017</v>
       </c>
@@ -8434,7 +8434,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>1018</v>
       </c>
@@ -8445,7 +8445,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>1019</v>
       </c>
@@ -8456,7 +8456,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>1020</v>
       </c>
@@ -8467,7 +8467,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>1021</v>
       </c>
@@ -8478,7 +8478,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>1022</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>1023</v>
       </c>
@@ -8500,7 +8500,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>1024</v>
       </c>
@@ -8511,7 +8511,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>1025</v>
       </c>
@@ -8522,7 +8522,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>1026</v>
       </c>
@@ -8533,7 +8533,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>1027</v>
       </c>
@@ -8544,7 +8544,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>1028</v>
       </c>
@@ -8555,7 +8555,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>1029</v>
       </c>
@@ -8566,7 +8566,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>1030</v>
       </c>
@@ -8577,7 +8577,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>1031</v>
       </c>
@@ -8588,7 +8588,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>1032</v>
       </c>
@@ -8599,7 +8599,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>1033</v>
       </c>
@@ -8610,7 +8610,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>1034</v>
       </c>
@@ -8621,7 +8621,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>1035</v>
       </c>
@@ -8632,7 +8632,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>1036</v>
       </c>
@@ -8643,7 +8643,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>1037</v>
       </c>
@@ -8654,7 +8654,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>1038</v>
       </c>
@@ -8665,7 +8665,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>1039</v>
       </c>
@@ -8676,7 +8676,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>1040</v>
       </c>
@@ -8687,7 +8687,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>1041</v>
       </c>
@@ -8698,7 +8698,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>1042</v>
       </c>
@@ -8709,7 +8709,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>1043</v>
       </c>
@@ -8720,7 +8720,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>1044</v>
       </c>
@@ -8731,7 +8731,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>1045</v>
       </c>
@@ -8742,7 +8742,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>1046</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>1047</v>
       </c>
@@ -8764,7 +8764,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>1048</v>
       </c>
@@ -8775,7 +8775,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>1049</v>
       </c>
@@ -8786,7 +8786,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>1050</v>
       </c>
@@ -8797,7 +8797,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>1051</v>
       </c>
@@ -8808,7 +8808,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>1052</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>1053</v>
       </c>
@@ -8830,7 +8830,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>1054</v>
       </c>
@@ -8841,7 +8841,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>1055</v>
       </c>
@@ -8852,7 +8852,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>1056</v>
       </c>
@@ -8863,7 +8863,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>1057</v>
       </c>
@@ -8874,7 +8874,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>1058</v>
       </c>
@@ -8885,7 +8885,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>1059</v>
       </c>
@@ -8896,7 +8896,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>1060</v>
       </c>
@@ -8907,7 +8907,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>1061</v>
       </c>
@@ -8918,7 +8918,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>1062</v>
       </c>
@@ -8929,7 +8929,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>1063</v>
       </c>
@@ -8940,7 +8940,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>1064</v>
       </c>
@@ -8951,7 +8951,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>1065</v>
       </c>
@@ -8962,7 +8962,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>1066</v>
       </c>
@@ -8973,7 +8973,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>1067</v>
       </c>
@@ -8984,7 +8984,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>1068</v>
       </c>
@@ -8995,7 +8995,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>1069</v>
       </c>
@@ -9006,7 +9006,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>1070</v>
       </c>
@@ -9017,7 +9017,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>1071</v>
       </c>
@@ -9028,7 +9028,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>1072</v>
       </c>
@@ -9039,7 +9039,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>1073</v>
       </c>
@@ -9050,7 +9050,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>1074</v>
       </c>
@@ -9061,7 +9061,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>1075</v>
       </c>
@@ -9072,7 +9072,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>1076</v>
       </c>
@@ -9083,7 +9083,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>1077</v>
       </c>
@@ -9094,7 +9094,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>1078</v>
       </c>
@@ -9105,7 +9105,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>1079</v>
       </c>
@@ -9116,7 +9116,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>1080</v>
       </c>
@@ -9127,7 +9127,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>1081</v>
       </c>
@@ -9138,7 +9138,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>1082</v>
       </c>
@@ -9149,7 +9149,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>1083</v>
       </c>
@@ -9160,7 +9160,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>1084</v>
       </c>
@@ -9171,7 +9171,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>1085</v>
       </c>
@@ -9182,7 +9182,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>1086</v>
       </c>
@@ -9193,7 +9193,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>1087</v>
       </c>
@@ -9204,7 +9204,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>1088</v>
       </c>
@@ -9215,7 +9215,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>1089</v>
       </c>
@@ -9226,7 +9226,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>1090</v>
       </c>
@@ -9237,7 +9237,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>1091</v>
       </c>
@@ -9248,7 +9248,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>1092</v>
       </c>
@@ -9259,7 +9259,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>1093</v>
       </c>
@@ -9270,7 +9270,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>1094</v>
       </c>
@@ -9281,7 +9281,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>1095</v>
       </c>
@@ -9292,7 +9292,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>1096</v>
       </c>
@@ -9303,7 +9303,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>1097</v>
       </c>
@@ -9314,7 +9314,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>1098</v>
       </c>
@@ -9325,7 +9325,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>1099</v>
       </c>
@@ -9336,7 +9336,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>1100</v>
       </c>
@@ -9347,7 +9347,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>1101</v>
       </c>
@@ -9358,7 +9358,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>1102</v>
       </c>
@@ -9369,7 +9369,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>1103</v>
       </c>
@@ -9380,7 +9380,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>1104</v>
       </c>
@@ -9391,7 +9391,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>1105</v>
       </c>
@@ -9402,7 +9402,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>1106</v>
       </c>
@@ -9413,7 +9413,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>1107</v>
       </c>
@@ -9424,7 +9424,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>1108</v>
       </c>
@@ -9435,7 +9435,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>1109</v>
       </c>
@@ -9446,7 +9446,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>1110</v>
       </c>
@@ -9457,7 +9457,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>1111</v>
       </c>
@@ -9468,7 +9468,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>1112</v>
       </c>
@@ -9479,7 +9479,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>1113</v>
       </c>
@@ -9490,7 +9490,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>1114</v>
       </c>
@@ -9501,7 +9501,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>1115</v>
       </c>
@@ -9512,7 +9512,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>1116</v>
       </c>
@@ -9523,7 +9523,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>1117</v>
       </c>
@@ -9534,7 +9534,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>1118</v>
       </c>
@@ -9545,7 +9545,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>1119</v>
       </c>
@@ -9556,7 +9556,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>1120</v>
       </c>
@@ -9567,7 +9567,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>1121</v>
       </c>
@@ -9578,7 +9578,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>1122</v>
       </c>
@@ -9589,7 +9589,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>1123</v>
       </c>
@@ -9600,7 +9600,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>1124</v>
       </c>
@@ -9611,7 +9611,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>1125</v>
       </c>
@@ -9622,7 +9622,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>1126</v>
       </c>
@@ -9633,7 +9633,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>1127</v>
       </c>
@@ -9644,7 +9644,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>1128</v>
       </c>
@@ -9655,7 +9655,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>1129</v>
       </c>
@@ -9666,7 +9666,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>1130</v>
       </c>
@@ -9677,7 +9677,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>1131</v>
       </c>
@@ -9688,7 +9688,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>1132</v>
       </c>
@@ -9699,7 +9699,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>1133</v>
       </c>
@@ -9710,7 +9710,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>1134</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>1135</v>
       </c>
@@ -9732,7 +9732,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>1136</v>
       </c>
@@ -9743,7 +9743,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>1137</v>
       </c>
@@ -9754,7 +9754,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>1138</v>
       </c>
@@ -9765,7 +9765,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>1139</v>
       </c>
@@ -9776,7 +9776,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>1140</v>
       </c>
@@ -9787,7 +9787,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>1141</v>
       </c>
@@ -9798,7 +9798,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>1142</v>
       </c>
@@ -9809,7 +9809,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>1143</v>
       </c>
@@ -9820,7 +9820,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>1144</v>
       </c>
@@ -9831,7 +9831,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>1145</v>
       </c>
@@ -9842,7 +9842,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>1146</v>
       </c>
@@ -9853,7 +9853,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>1147</v>
       </c>
@@ -9864,7 +9864,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>1148</v>
       </c>
@@ -9875,7 +9875,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>1149</v>
       </c>
@@ -9886,7 +9886,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>1150</v>
       </c>
@@ -9897,7 +9897,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>1151</v>
       </c>
@@ -9908,7 +9908,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>1152</v>
       </c>
@@ -9919,7 +9919,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>1153</v>
       </c>
@@ -9930,7 +9930,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>1154</v>
       </c>
@@ -9941,7 +9941,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>1155</v>
       </c>
@@ -9952,7 +9952,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>1156</v>
       </c>
@@ -9963,7 +9963,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>1157</v>
       </c>
@@ -9974,7 +9974,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>1158</v>
       </c>
@@ -9985,7 +9985,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>1159</v>
       </c>
@@ -9996,7 +9996,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>1160</v>
       </c>
@@ -10007,7 +10007,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>1161</v>
       </c>
@@ -10018,7 +10018,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>1162</v>
       </c>
@@ -10029,7 +10029,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>1163</v>
       </c>
@@ -10040,7 +10040,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>1164</v>
       </c>
@@ -10051,7 +10051,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>1165</v>
       </c>
@@ -10062,7 +10062,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>1166</v>
       </c>
@@ -10073,7 +10073,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>1167</v>
       </c>
@@ -10084,7 +10084,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>1168</v>
       </c>
@@ -10095,7 +10095,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>1169</v>
       </c>
@@ -10106,7 +10106,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>1170</v>
       </c>
@@ -10117,7 +10117,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>1171</v>
       </c>
@@ -10128,7 +10128,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>1172</v>
       </c>
@@ -10139,7 +10139,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>1173</v>
       </c>
@@ -10150,7 +10150,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>1174</v>
       </c>
@@ -10161,7 +10161,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>1175</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>1176</v>
       </c>
@@ -10183,7 +10183,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>1177</v>
       </c>
@@ -10194,7 +10194,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>1178</v>
       </c>
@@ -10205,7 +10205,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>1179</v>
       </c>
@@ -10216,7 +10216,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>1180</v>
       </c>
@@ -10227,7 +10227,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>1181</v>
       </c>
@@ -10238,7 +10238,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>1182</v>
       </c>
@@ -10249,7 +10249,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>1183</v>
       </c>
@@ -10260,7 +10260,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>1184</v>
       </c>
@@ -10271,7 +10271,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>1185</v>
       </c>
@@ -10282,7 +10282,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>1186</v>
       </c>
@@ -10293,7 +10293,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>1187</v>
       </c>
@@ -10304,7 +10304,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>1188</v>
       </c>
@@ -10315,7 +10315,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>1189</v>
       </c>
@@ -10326,7 +10326,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>1190</v>
       </c>
@@ -10337,7 +10337,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>1191</v>
       </c>
@@ -10348,7 +10348,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>1192</v>
       </c>
@@ -10359,7 +10359,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>1193</v>
       </c>
@@ -10370,7 +10370,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>1194</v>
       </c>
@@ -10381,22 +10381,22 @@
         <v>424</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>1198</v>
       </c>
@@ -10404,7 +10404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>1199</v>
       </c>
@@ -10412,12 +10412,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>1200</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>1201</v>
       </c>
@@ -10428,7 +10428,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>1202</v>
       </c>
@@ -10439,7 +10439,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>1203</v>
       </c>
@@ -10450,7 +10450,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>1204</v>
       </c>
@@ -10461,12 +10461,12 @@
         <v>432</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>1206</v>
       </c>
@@ -10485,15 +10485,15 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.84375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.84375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.53515625" customWidth="1"/>
-    <col min="5" max="5" width="7.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.53125" customWidth="1"/>
+    <col min="5" max="5" width="7.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>815</v>
       </c>
@@ -10516,7 +10516,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10539,7 +10539,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10562,7 +10562,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10585,7 +10585,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10608,7 +10608,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10631,7 +10631,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10654,7 +10654,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -10677,7 +10677,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -10700,7 +10700,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -10723,7 +10723,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -10746,7 +10746,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -10769,7 +10769,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -10792,7 +10792,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -10815,7 +10815,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -10838,7 +10838,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -10861,7 +10861,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -10884,7 +10884,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -10907,7 +10907,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -10930,7 +10930,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -10953,7 +10953,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -10976,7 +10976,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -10999,7 +10999,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -11022,7 +11022,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -11045,7 +11045,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -11068,7 +11068,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -11091,7 +11091,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -11114,7 +11114,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -11137,7 +11137,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -11160,7 +11160,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -11183,7 +11183,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -11206,7 +11206,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -11229,7 +11229,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -11265,9 +11265,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>785</v>
       </c>
@@ -11275,7 +11275,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>437</v>
       </c>
@@ -11283,7 +11283,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>438</v>
       </c>
@@ -11291,7 +11291,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>440</v>
       </c>
@@ -11299,7 +11299,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>441</v>
       </c>
@@ -11307,7 +11307,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>443</v>
       </c>
@@ -11315,7 +11315,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>444</v>
       </c>
@@ -11323,7 +11323,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>446</v>
       </c>
@@ -11331,7 +11331,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>448</v>
       </c>
@@ -11339,7 +11339,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>449</v>
       </c>
@@ -11347,7 +11347,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>451</v>
       </c>
@@ -11355,7 +11355,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>453</v>
       </c>
@@ -11363,7 +11363,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>454</v>
       </c>
@@ -11371,7 +11371,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>455</v>
       </c>
@@ -11379,7 +11379,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>457</v>
       </c>
@@ -11387,7 +11387,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>458</v>
       </c>
@@ -11395,7 +11395,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>459</v>
       </c>
@@ -11403,7 +11403,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>460</v>
       </c>
@@ -11411,7 +11411,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>461</v>
       </c>
@@ -11419,7 +11419,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>463</v>
       </c>
@@ -11427,7 +11427,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>465</v>
       </c>
@@ -11435,7 +11435,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>466</v>
       </c>
@@ -11443,7 +11443,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>468</v>
       </c>
@@ -11451,7 +11451,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>469</v>
       </c>
@@ -11459,7 +11459,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>471</v>
       </c>
@@ -11467,7 +11467,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>473</v>
       </c>
@@ -11475,7 +11475,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>475</v>
       </c>
@@ -11483,7 +11483,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>477</v>
       </c>
@@ -11491,7 +11491,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>479</v>
       </c>
@@ -11499,7 +11499,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>481</v>
       </c>
@@ -11507,7 +11507,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>483</v>
       </c>
@@ -11515,7 +11515,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>484</v>
       </c>
@@ -11523,7 +11523,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>486</v>
       </c>
@@ -11531,7 +11531,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>488</v>
       </c>
@@ -11539,7 +11539,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>490</v>
       </c>
@@ -11547,7 +11547,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>491</v>
       </c>
@@ -11555,7 +11555,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>493</v>
       </c>
@@ -11563,7 +11563,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>494</v>
       </c>
@@ -11571,7 +11571,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>495</v>
       </c>
@@ -11579,7 +11579,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>496</v>
       </c>
@@ -11587,7 +11587,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>498</v>
       </c>
@@ -11595,7 +11595,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>499</v>
       </c>
@@ -11603,7 +11603,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>500</v>
       </c>
@@ -11611,7 +11611,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>502</v>
       </c>
@@ -11619,7 +11619,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>503</v>
       </c>
@@ -11627,7 +11627,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>504</v>
       </c>
@@ -11635,7 +11635,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>506</v>
       </c>
@@ -11643,7 +11643,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>508</v>
       </c>
@@ -11651,7 +11651,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>509</v>
       </c>
@@ -11659,7 +11659,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>510</v>
       </c>
@@ -11667,7 +11667,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>512</v>
       </c>
@@ -11675,7 +11675,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>513</v>
       </c>
@@ -11683,7 +11683,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>515</v>
       </c>
@@ -11691,7 +11691,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>516</v>
       </c>
@@ -11699,7 +11699,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>518</v>
       </c>
@@ -11707,7 +11707,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>520</v>
       </c>
@@ -11715,7 +11715,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>522</v>
       </c>
@@ -11723,7 +11723,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>524</v>
       </c>
@@ -11731,7 +11731,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>525</v>
       </c>
@@ -11739,7 +11739,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>526</v>
       </c>
@@ -11747,7 +11747,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>527</v>
       </c>
@@ -11755,7 +11755,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>529</v>
       </c>
@@ -11763,7 +11763,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>531</v>
       </c>
@@ -11771,7 +11771,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>533</v>
       </c>
@@ -11779,7 +11779,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>534</v>
       </c>
@@ -11787,7 +11787,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>536</v>
       </c>
@@ -11795,7 +11795,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>538</v>
       </c>
@@ -11803,7 +11803,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>540</v>
       </c>
@@ -11811,7 +11811,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>541</v>
       </c>
@@ -11819,7 +11819,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>542</v>
       </c>
@@ -11827,7 +11827,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>544</v>
       </c>
@@ -11835,7 +11835,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>545</v>
       </c>
@@ -11843,7 +11843,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>547</v>
       </c>
@@ -11851,7 +11851,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>549</v>
       </c>
@@ -11859,7 +11859,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>551</v>
       </c>
@@ -11867,7 +11867,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>552</v>
       </c>
@@ -11875,7 +11875,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>554</v>
       </c>
@@ -11883,7 +11883,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>556</v>
       </c>
@@ -11891,7 +11891,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>557</v>
       </c>
@@ -11899,7 +11899,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>558</v>
       </c>
@@ -11907,7 +11907,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>560</v>
       </c>
@@ -11915,7 +11915,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>561</v>
       </c>
@@ -11923,7 +11923,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>563</v>
       </c>
@@ -11931,7 +11931,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>565</v>
       </c>
@@ -11939,7 +11939,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>567</v>
       </c>
@@ -11947,7 +11947,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>568</v>
       </c>
@@ -11955,7 +11955,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>570</v>
       </c>
@@ -11963,7 +11963,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>571</v>
       </c>
@@ -11971,7 +11971,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>572</v>
       </c>
@@ -11979,7 +11979,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>573</v>
       </c>
@@ -11987,7 +11987,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>574</v>
       </c>
@@ -11995,7 +11995,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>575</v>
       </c>
@@ -12003,7 +12003,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>576</v>
       </c>
@@ -12011,7 +12011,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>577</v>
       </c>
@@ -12019,7 +12019,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>578</v>
       </c>
@@ -12027,7 +12027,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>579</v>
       </c>
@@ -12035,7 +12035,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>580</v>
       </c>
@@ -12043,7 +12043,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>581</v>
       </c>
@@ -12051,7 +12051,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>582</v>
       </c>
@@ -12059,7 +12059,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>583</v>
       </c>
@@ -12067,7 +12067,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>584</v>
       </c>
@@ -12075,7 +12075,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>585</v>
       </c>
@@ -12083,7 +12083,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>586</v>
       </c>
@@ -12091,7 +12091,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>587</v>
       </c>
@@ -12099,7 +12099,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>588</v>
       </c>
@@ -12107,7 +12107,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>589</v>
       </c>
@@ -12115,7 +12115,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>591</v>
       </c>
@@ -12123,7 +12123,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>592</v>
       </c>
@@ -12131,7 +12131,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>692</v>
       </c>
@@ -12139,7 +12139,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>593</v>
       </c>
@@ -12147,7 +12147,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>594</v>
       </c>
@@ -12155,7 +12155,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>595</v>
       </c>
@@ -12163,7 +12163,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>596</v>
       </c>
@@ -12171,7 +12171,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>597</v>
       </c>
@@ -12179,7 +12179,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>598</v>
       </c>
@@ -12187,7 +12187,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>599</v>
       </c>
@@ -12195,7 +12195,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>600</v>
       </c>
@@ -12203,7 +12203,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>601</v>
       </c>
@@ -12211,7 +12211,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>602</v>
       </c>
@@ -12219,7 +12219,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>693</v>
       </c>
@@ -12227,7 +12227,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>694</v>
       </c>
@@ -12235,7 +12235,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>695</v>
       </c>
@@ -12243,7 +12243,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>696</v>
       </c>
@@ -12251,7 +12251,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>697</v>
       </c>
@@ -12259,7 +12259,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>698</v>
       </c>
@@ -12267,7 +12267,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>699</v>
       </c>
@@ -12275,7 +12275,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>603</v>
       </c>
@@ -12283,7 +12283,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>604</v>
       </c>
@@ -12291,7 +12291,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>605</v>
       </c>
@@ -12299,7 +12299,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>606</v>
       </c>
@@ -12307,7 +12307,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>607</v>
       </c>
@@ -12315,7 +12315,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>608</v>
       </c>
@@ -12323,7 +12323,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>609</v>
       </c>
@@ -12340,16 +12340,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D1C4B1-99FA-4847-8C6B-549B844D73AF}">
   <dimension ref="A1:C218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
       <selection activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="30.07421875" customWidth="1"/>
+    <col min="2" max="2" width="30.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>789</v>
       </c>
@@ -12360,7 +12360,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -12371,7 +12371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -12382,7 +12382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -12393,7 +12393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -12404,7 +12404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -12415,7 +12415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -12426,7 +12426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -12437,7 +12437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -12448,7 +12448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -12459,7 +12459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -12470,7 +12470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -12481,7 +12481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -12492,7 +12492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -12503,7 +12503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -12514,7 +12514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -12525,7 +12525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -12536,7 +12536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -12547,7 +12547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -12558,7 +12558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -12569,7 +12569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -12580,7 +12580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -12591,7 +12591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -12602,7 +12602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -12613,7 +12613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -12624,7 +12624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -12635,7 +12635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -12646,7 +12646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -12657,7 +12657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -12668,7 +12668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -12679,7 +12679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -12690,7 +12690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -12701,7 +12701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -12712,7 +12712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -12723,7 +12723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -12734,7 +12734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>68</v>
       </c>
@@ -12745,7 +12745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -12756,7 +12756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>72</v>
       </c>
@@ -12767,7 +12767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>74</v>
       </c>
@@ -12778,7 +12778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>76</v>
       </c>
@@ -12789,7 +12789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -12800,7 +12800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -12811,7 +12811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -12822,7 +12822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -12833,7 +12833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>86</v>
       </c>
@@ -12844,7 +12844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -12855,7 +12855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>90</v>
       </c>
@@ -12866,7 +12866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>92</v>
       </c>
@@ -12877,7 +12877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>94</v>
       </c>
@@ -12888,7 +12888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -12899,7 +12899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>98</v>
       </c>
@@ -12910,7 +12910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>100</v>
       </c>
@@ -12921,7 +12921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>102</v>
       </c>
@@ -12932,7 +12932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>104</v>
       </c>
@@ -12943,7 +12943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>106</v>
       </c>
@@ -12954,7 +12954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>108</v>
       </c>
@@ -12965,7 +12965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>110</v>
       </c>
@@ -12976,7 +12976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>112</v>
       </c>
@@ -12987,7 +12987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>114</v>
       </c>
@@ -12998,7 +12998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>116</v>
       </c>
@@ -13009,7 +13009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>118</v>
       </c>
@@ -13020,7 +13020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>120</v>
       </c>
@@ -13031,7 +13031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>122</v>
       </c>
@@ -13042,7 +13042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>124</v>
       </c>
@@ -13053,7 +13053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>126</v>
       </c>
@@ -13064,7 +13064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>128</v>
       </c>
@@ -13075,7 +13075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>130</v>
       </c>
@@ -13086,7 +13086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>132</v>
       </c>
@@ -13097,7 +13097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>134</v>
       </c>
@@ -13108,7 +13108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>136</v>
       </c>
@@ -13119,7 +13119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>138</v>
       </c>
@@ -13130,7 +13130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>140</v>
       </c>
@@ -13141,7 +13141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>142</v>
       </c>
@@ -13152,7 +13152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>144</v>
       </c>
@@ -13163,7 +13163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>146</v>
       </c>
@@ -13174,7 +13174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>148</v>
       </c>
@@ -13185,7 +13185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>150</v>
       </c>
@@ -13196,7 +13196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>152</v>
       </c>
@@ -13207,7 +13207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>154</v>
       </c>
@@ -13218,7 +13218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>156</v>
       </c>
@@ -13229,7 +13229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>158</v>
       </c>
@@ -13240,7 +13240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>160</v>
       </c>
@@ -13251,7 +13251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>162</v>
       </c>
@@ -13262,7 +13262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>164</v>
       </c>
@@ -13273,7 +13273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>166</v>
       </c>
@@ -13284,7 +13284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>168</v>
       </c>
@@ -13295,7 +13295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>170</v>
       </c>
@@ -13306,7 +13306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>172</v>
       </c>
@@ -13317,7 +13317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>174</v>
       </c>
@@ -13328,7 +13328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>176</v>
       </c>
@@ -13339,7 +13339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>178</v>
       </c>
@@ -13350,7 +13350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>180</v>
       </c>
@@ -13361,7 +13361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>182</v>
       </c>
@@ -13372,7 +13372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>184</v>
       </c>
@@ -13383,7 +13383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>186</v>
       </c>
@@ -13394,7 +13394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>188</v>
       </c>
@@ -13405,7 +13405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>190</v>
       </c>
@@ -13416,7 +13416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>192</v>
       </c>
@@ -13427,7 +13427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>194</v>
       </c>
@@ -13438,7 +13438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>196</v>
       </c>
@@ -13449,7 +13449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>198</v>
       </c>
@@ -13460,7 +13460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>200</v>
       </c>
@@ -13471,7 +13471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>202</v>
       </c>
@@ -13482,7 +13482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>204</v>
       </c>
@@ -13493,7 +13493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>206</v>
       </c>
@@ -13504,7 +13504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>208</v>
       </c>
@@ -13515,7 +13515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>210</v>
       </c>
@@ -13526,7 +13526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>212</v>
       </c>
@@ -13537,7 +13537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>214</v>
       </c>
@@ -13548,7 +13548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>216</v>
       </c>
@@ -13559,7 +13559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>218</v>
       </c>
@@ -13570,7 +13570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>220</v>
       </c>
@@ -13581,7 +13581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>222</v>
       </c>
@@ -13592,7 +13592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>224</v>
       </c>
@@ -13603,7 +13603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>226</v>
       </c>
@@ -13614,7 +13614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>228</v>
       </c>
@@ -13625,7 +13625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>230</v>
       </c>
@@ -13636,7 +13636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>232</v>
       </c>
@@ -13647,7 +13647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>234</v>
       </c>
@@ -13658,7 +13658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>236</v>
       </c>
@@ -13669,7 +13669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>238</v>
       </c>
@@ -13680,7 +13680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>240</v>
       </c>
@@ -13691,7 +13691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>242</v>
       </c>
@@ -13702,7 +13702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>244</v>
       </c>
@@ -13713,7 +13713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>246</v>
       </c>
@@ -13724,7 +13724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>248</v>
       </c>
@@ -13735,7 +13735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>250</v>
       </c>
@@ -13746,7 +13746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>252</v>
       </c>
@@ -13757,7 +13757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>254</v>
       </c>
@@ -13768,7 +13768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>256</v>
       </c>
@@ -13779,7 +13779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>258</v>
       </c>
@@ -13790,7 +13790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>260</v>
       </c>
@@ -13801,7 +13801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>262</v>
       </c>
@@ -13812,7 +13812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>264</v>
       </c>
@@ -13823,7 +13823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>266</v>
       </c>
@@ -13834,7 +13834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>268</v>
       </c>
@@ -13845,7 +13845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>270</v>
       </c>
@@ -13856,7 +13856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>272</v>
       </c>
@@ -13867,7 +13867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>274</v>
       </c>
@@ -13878,7 +13878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>276</v>
       </c>
@@ -13889,7 +13889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>278</v>
       </c>
@@ -13900,7 +13900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>280</v>
       </c>
@@ -13911,7 +13911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>282</v>
       </c>
@@ -13922,7 +13922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>284</v>
       </c>
@@ -13933,7 +13933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>286</v>
       </c>
@@ -13944,7 +13944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>288</v>
       </c>
@@ -13955,7 +13955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>290</v>
       </c>
@@ -13966,7 +13966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>292</v>
       </c>
@@ -13977,7 +13977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>294</v>
       </c>
@@ -13988,7 +13988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>296</v>
       </c>
@@ -13999,7 +13999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>298</v>
       </c>
@@ -14010,7 +14010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>300</v>
       </c>
@@ -14021,7 +14021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>302</v>
       </c>
@@ -14032,7 +14032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>304</v>
       </c>
@@ -14043,7 +14043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>306</v>
       </c>
@@ -14054,7 +14054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>308</v>
       </c>
@@ -14065,7 +14065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>310</v>
       </c>
@@ -14076,7 +14076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>312</v>
       </c>
@@ -14087,7 +14087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>314</v>
       </c>
@@ -14098,7 +14098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>316</v>
       </c>
@@ -14109,7 +14109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>318</v>
       </c>
@@ -14120,7 +14120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>320</v>
       </c>
@@ -14131,7 +14131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>322</v>
       </c>
@@ -14142,7 +14142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>324</v>
       </c>
@@ -14153,7 +14153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>326</v>
       </c>
@@ -14164,7 +14164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>328</v>
       </c>
@@ -14175,7 +14175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>330</v>
       </c>
@@ -14186,7 +14186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>332</v>
       </c>
@@ -14197,7 +14197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>334</v>
       </c>
@@ -14208,7 +14208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>336</v>
       </c>
@@ -14219,7 +14219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>338</v>
       </c>
@@ -14230,7 +14230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>340</v>
       </c>
@@ -14241,7 +14241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>342</v>
       </c>
@@ -14252,7 +14252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>344</v>
       </c>
@@ -14263,7 +14263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>346</v>
       </c>
@@ -14274,7 +14274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>348</v>
       </c>
@@ -14285,7 +14285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>350</v>
       </c>
@@ -14296,7 +14296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>352</v>
       </c>
@@ -14307,7 +14307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>354</v>
       </c>
@@ -14318,7 +14318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>356</v>
       </c>
@@ -14329,7 +14329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>358</v>
       </c>
@@ -14340,7 +14340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>360</v>
       </c>
@@ -14351,7 +14351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>362</v>
       </c>
@@ -14362,7 +14362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>364</v>
       </c>
@@ -14373,7 +14373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>366</v>
       </c>
@@ -14384,7 +14384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>368</v>
       </c>
@@ -14395,7 +14395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>370</v>
       </c>
@@ -14406,7 +14406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>372</v>
       </c>
@@ -14417,7 +14417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>374</v>
       </c>
@@ -14428,7 +14428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>376</v>
       </c>
@@ -14439,7 +14439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>378</v>
       </c>
@@ -14450,7 +14450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>380</v>
       </c>
@@ -14461,7 +14461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>382</v>
       </c>
@@ -14472,7 +14472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>384</v>
       </c>
@@ -14483,7 +14483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>386</v>
       </c>
@@ -14494,7 +14494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>388</v>
       </c>
@@ -14505,7 +14505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>390</v>
       </c>
@@ -14516,7 +14516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>392</v>
       </c>
@@ -14527,7 +14527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>394</v>
       </c>
@@ -14538,7 +14538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>396</v>
       </c>
@@ -14549,7 +14549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>398</v>
       </c>
@@ -14560,7 +14560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>400</v>
       </c>
@@ -14571,7 +14571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>402</v>
       </c>
@@ -14582,7 +14582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>404</v>
       </c>
@@ -14593,7 +14593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>406</v>
       </c>
@@ -14604,7 +14604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>408</v>
       </c>
@@ -14615,7 +14615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>410</v>
       </c>
@@ -14626,7 +14626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>412</v>
       </c>
@@ -14637,7 +14637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>414</v>
       </c>
@@ -14648,7 +14648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>416</v>
       </c>
@@ -14659,7 +14659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>418</v>
       </c>
@@ -14670,7 +14670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>420</v>
       </c>
@@ -14681,7 +14681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>422</v>
       </c>
@@ -14692,7 +14692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>424</v>
       </c>
@@ -14703,7 +14703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>426</v>
       </c>
@@ -14714,7 +14714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>428</v>
       </c>
@@ -14725,7 +14725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>430</v>
       </c>
@@ -14736,7 +14736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>432</v>
       </c>
@@ -14763,12 +14763,12 @@
       <selection pane="bottomRight" activeCell="B187" sqref="B187"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="16.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>802</v>
       </c>
@@ -14776,7 +14776,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14784,7 +14784,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -14792,7 +14792,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -14800,51 +14800,51 @@
         <v>805</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
     </row>
@@ -14861,9 +14861,9 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>810</v>
       </c>
@@ -14871,7 +14871,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14879,7 +14879,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -14898,12 +14898,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.15234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>787</v>
       </c>
@@ -14911,7 +14911,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14919,7 +14919,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -14927,7 +14927,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -14948,15 +14948,15 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.86328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.84375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.23046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1376</v>
       </c>
@@ -14970,7 +14970,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14984,7 +14984,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -14998,7 +14998,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -15012,7 +15012,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -15026,7 +15026,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -15040,7 +15040,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -15054,7 +15054,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -15068,7 +15068,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -15082,7 +15082,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -15096,7 +15096,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -15110,7 +15110,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>

--- a/datos/CLASIFICACIONES.xlsx
+++ b/datos/CLASIFICACIONES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renato\GitHub\scn_scae_gt\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AD18C0-1936-43C8-8A1E-229BE607C8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2402F5-C87C-411C-BBF5-C50AAC216265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3804" yWindow="-13068" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{C22BA8DC-7785-47D2-AF50-A04A94E3F417}"/>
+    <workbookView xWindow="743" yWindow="-98" windowWidth="18555" windowHeight="10996" activeTab="4" xr2:uid="{C22BA8DC-7785-47D2-AF50-A04A94E3F417}"/>
   </bookViews>
   <sheets>
     <sheet name="columnas" sheetId="3" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4075" uniqueCount="1473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4125" uniqueCount="1484">
   <si>
     <t>P0101</t>
   </si>
@@ -4470,6 +4470,39 @@
   </si>
   <si>
     <t>N2O equivalente</t>
+  </si>
+  <si>
+    <t>GTMva000</t>
+  </si>
+  <si>
+    <t>Valor agregado</t>
+  </si>
+  <si>
+    <t>Valor Agregado</t>
+  </si>
+  <si>
+    <t>Energía eléctrica, gas, vapor y aire acondicionado</t>
+  </si>
+  <si>
+    <t>Otras primarias (incluye solar)</t>
+  </si>
+  <si>
+    <t>id_ciiu1_compacta</t>
+  </si>
+  <si>
+    <t>ciiu1_compacta</t>
+  </si>
+  <si>
+    <t>No determinada</t>
+  </si>
+  <si>
+    <t>I-S</t>
+  </si>
+  <si>
+    <t>Transporte</t>
+  </si>
+  <si>
+    <t>D-E</t>
   </si>
 </sst>
 </file>
@@ -4848,8 +4881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929882BB-EC53-415D-8756-EE638CA8DF7A}">
   <dimension ref="A1:C339"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="B170" sqref="B170"/>
+    <sheetView topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="A188" sqref="A188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8374,10 +8407,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186748BD-FE1A-4F85-84AF-EE7AA794CE26}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8431,6 +8464,14 @@
       </c>
       <c r="B6" t="s">
         <v>1397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1474</v>
       </c>
     </row>
   </sheetData>
@@ -34299,10 +34340,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630F3B5A-7724-4218-8CEA-54B103D0974A}">
-  <dimension ref="A1:C229"/>
+  <dimension ref="A1:C230"/>
   <sheetViews>
-    <sheetView topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="A227" sqref="A227:A229"/>
+    <sheetView topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="C231" sqref="C231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -36787,6 +36828,14 @@
         <v>1403</v>
       </c>
     </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A230" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B230">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36795,10 +36844,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DC7725-521A-47B8-B2E7-57FAA2BB5224}">
-  <dimension ref="A1:C229"/>
+  <dimension ref="A1:C230"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C229" sqref="C229"/>
+    <sheetView topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="A230" sqref="A230:C230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -39283,6 +39332,14 @@
         <v>1403</v>
       </c>
     </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A230" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B230">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39292,7 +39349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05E38F5-79ED-4AF1-BD6D-0CBD9E0C28A7}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
@@ -40139,10 +40196,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E379736E-AEF6-4880-BCC8-DFD07670FC02}">
-  <dimension ref="A1:E134"/>
+  <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="A134" sqref="A134"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -40150,7 +40207,7 @@
     <col min="2" max="2" width="32.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>785</v>
       </c>
@@ -40166,8 +40223,14 @@
       <c r="E1" t="s">
         <v>1450</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>437</v>
       </c>
@@ -40183,8 +40246,16 @@
       <c r="E2" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F2" t="str">
+        <f>VLOOKUP(C2,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>A</v>
+      </c>
+      <c r="G2" t="str">
+        <f>VLOOKUP(C2,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Agricultura</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>438</v>
       </c>
@@ -40200,8 +40271,16 @@
       <c r="E3" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F3" t="str">
+        <f>VLOOKUP(C3,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>A</v>
+      </c>
+      <c r="G3" t="str">
+        <f>VLOOKUP(C3,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Agricultura</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>440</v>
       </c>
@@ -40217,8 +40296,16 @@
       <c r="E4" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F4" t="str">
+        <f>VLOOKUP(C4,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>A</v>
+      </c>
+      <c r="G4" t="str">
+        <f>VLOOKUP(C4,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Agricultura</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>441</v>
       </c>
@@ -40234,8 +40321,16 @@
       <c r="E5" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F5" t="str">
+        <f>VLOOKUP(C5,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>A</v>
+      </c>
+      <c r="G5" t="str">
+        <f>VLOOKUP(C5,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Agricultura</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>443</v>
       </c>
@@ -40251,8 +40346,16 @@
       <c r="E6" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F6" t="str">
+        <f>VLOOKUP(C6,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>A</v>
+      </c>
+      <c r="G6" t="str">
+        <f>VLOOKUP(C6,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Agricultura</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>444</v>
       </c>
@@ -40268,8 +40371,16 @@
       <c r="E7" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F7" t="str">
+        <f>VLOOKUP(C7,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>A</v>
+      </c>
+      <c r="G7" t="str">
+        <f>VLOOKUP(C7,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Agricultura</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>446</v>
       </c>
@@ -40285,8 +40396,16 @@
       <c r="E8" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F8" t="str">
+        <f>VLOOKUP(C8,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>A</v>
+      </c>
+      <c r="G8" t="str">
+        <f>VLOOKUP(C8,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Agricultura</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>448</v>
       </c>
@@ -40302,8 +40421,16 @@
       <c r="E9" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F9" t="str">
+        <f>VLOOKUP(C9,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>A</v>
+      </c>
+      <c r="G9" t="str">
+        <f>VLOOKUP(C9,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Agricultura</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>449</v>
       </c>
@@ -40319,8 +40446,16 @@
       <c r="E10" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F10" t="str">
+        <f>VLOOKUP(C10,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>A</v>
+      </c>
+      <c r="G10" t="str">
+        <f>VLOOKUP(C10,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Agricultura</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>451</v>
       </c>
@@ -40336,8 +40471,16 @@
       <c r="E11" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F11" t="str">
+        <f>VLOOKUP(C11,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>A</v>
+      </c>
+      <c r="G11" t="str">
+        <f>VLOOKUP(C11,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Agricultura</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>453</v>
       </c>
@@ -40353,8 +40496,16 @@
       <c r="E12" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F12" t="str">
+        <f>VLOOKUP(C12,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>A</v>
+      </c>
+      <c r="G12" t="str">
+        <f>VLOOKUP(C12,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Agricultura</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>454</v>
       </c>
@@ -40370,8 +40521,16 @@
       <c r="E13" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F13" t="str">
+        <f>VLOOKUP(C13,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>A</v>
+      </c>
+      <c r="G13" t="str">
+        <f>VLOOKUP(C13,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Agricultura</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>455</v>
       </c>
@@ -40387,8 +40546,16 @@
       <c r="E14" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F14" t="str">
+        <f>VLOOKUP(C14,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>A</v>
+      </c>
+      <c r="G14" t="str">
+        <f>VLOOKUP(C14,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Agricultura</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>457</v>
       </c>
@@ -40404,8 +40571,16 @@
       <c r="E15" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F15" t="str">
+        <f>VLOOKUP(C15,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>A</v>
+      </c>
+      <c r="G15" t="str">
+        <f>VLOOKUP(C15,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Agricultura</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>458</v>
       </c>
@@ -40421,8 +40596,16 @@
       <c r="E16" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F16" t="str">
+        <f>VLOOKUP(C16,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>A</v>
+      </c>
+      <c r="G16" t="str">
+        <f>VLOOKUP(C16,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Agricultura</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>459</v>
       </c>
@@ -40438,8 +40621,16 @@
       <c r="E17" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F17" t="str">
+        <f>VLOOKUP(C17,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>A</v>
+      </c>
+      <c r="G17" t="str">
+        <f>VLOOKUP(C17,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Agricultura</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>460</v>
       </c>
@@ -40455,8 +40646,16 @@
       <c r="E18" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F18" t="str">
+        <f>VLOOKUP(C18,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>A</v>
+      </c>
+      <c r="G18" t="str">
+        <f>VLOOKUP(C18,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Agricultura</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>461</v>
       </c>
@@ -40472,8 +40671,16 @@
       <c r="E19" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F19" t="str">
+        <f>VLOOKUP(C19,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>A</v>
+      </c>
+      <c r="G19" t="str">
+        <f>VLOOKUP(C19,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Agricultura</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>463</v>
       </c>
@@ -40489,8 +40696,16 @@
       <c r="E20" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F20" t="str">
+        <f>VLOOKUP(C20,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>A</v>
+      </c>
+      <c r="G20" t="str">
+        <f>VLOOKUP(C20,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Agricultura</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>465</v>
       </c>
@@ -40506,8 +40721,16 @@
       <c r="E21" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F21" t="str">
+        <f>VLOOKUP(C21,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>A</v>
+      </c>
+      <c r="G21" t="str">
+        <f>VLOOKUP(C21,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Agricultura</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>466</v>
       </c>
@@ -40523,8 +40746,16 @@
       <c r="E22" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F22" t="str">
+        <f>VLOOKUP(C22,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>A</v>
+      </c>
+      <c r="G22" t="str">
+        <f>VLOOKUP(C22,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Agricultura</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>468</v>
       </c>
@@ -40540,8 +40771,16 @@
       <c r="E23" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F23" t="str">
+        <f>VLOOKUP(C23,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>A</v>
+      </c>
+      <c r="G23" t="str">
+        <f>VLOOKUP(C23,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Agricultura</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>469</v>
       </c>
@@ -40557,8 +40796,16 @@
       <c r="E24" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F24" t="str">
+        <f>VLOOKUP(C24,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>A</v>
+      </c>
+      <c r="G24" t="str">
+        <f>VLOOKUP(C24,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Agricultura</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>471</v>
       </c>
@@ -40574,8 +40821,16 @@
       <c r="E25" t="s">
         <v>1452</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F25" t="str">
+        <f>VLOOKUP(C25,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>B</v>
+      </c>
+      <c r="G25" t="str">
+        <f>VLOOKUP(C25,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Minería</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>473</v>
       </c>
@@ -40591,8 +40846,16 @@
       <c r="E26" t="s">
         <v>1452</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F26" t="str">
+        <f>VLOOKUP(C26,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>B</v>
+      </c>
+      <c r="G26" t="str">
+        <f>VLOOKUP(C26,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Minería</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>475</v>
       </c>
@@ -40608,8 +40871,16 @@
       <c r="E27" t="s">
         <v>1452</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F27" t="str">
+        <f>VLOOKUP(C27,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>B</v>
+      </c>
+      <c r="G27" t="str">
+        <f>VLOOKUP(C27,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Minería</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>477</v>
       </c>
@@ -40625,8 +40896,16 @@
       <c r="E28" t="s">
         <v>1452</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F28" t="str">
+        <f>VLOOKUP(C28,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>B</v>
+      </c>
+      <c r="G28" t="str">
+        <f>VLOOKUP(C28,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Minería</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>479</v>
       </c>
@@ -40642,8 +40921,16 @@
       <c r="E29" t="s">
         <v>1452</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F29" t="str">
+        <f>VLOOKUP(C29,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>B</v>
+      </c>
+      <c r="G29" t="str">
+        <f>VLOOKUP(C29,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Minería</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>481</v>
       </c>
@@ -40659,8 +40946,16 @@
       <c r="E30" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F30" t="str">
+        <f>VLOOKUP(C30,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G30" t="str">
+        <f>VLOOKUP(C30,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>483</v>
       </c>
@@ -40676,8 +40971,16 @@
       <c r="E31" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F31" t="str">
+        <f>VLOOKUP(C31,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G31" t="str">
+        <f>VLOOKUP(C31,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>484</v>
       </c>
@@ -40693,8 +40996,16 @@
       <c r="E32" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F32" t="str">
+        <f>VLOOKUP(C32,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G32" t="str">
+        <f>VLOOKUP(C32,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>486</v>
       </c>
@@ -40710,8 +41021,16 @@
       <c r="E33" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F33" t="str">
+        <f>VLOOKUP(C33,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G33" t="str">
+        <f>VLOOKUP(C33,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>488</v>
       </c>
@@ -40727,8 +41046,16 @@
       <c r="E34" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F34" t="str">
+        <f>VLOOKUP(C34,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G34" t="str">
+        <f>VLOOKUP(C34,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>490</v>
       </c>
@@ -40744,8 +41071,16 @@
       <c r="E35" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F35" t="str">
+        <f>VLOOKUP(C35,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G35" t="str">
+        <f>VLOOKUP(C35,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>491</v>
       </c>
@@ -40761,8 +41096,16 @@
       <c r="E36" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F36" t="str">
+        <f>VLOOKUP(C36,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G36" t="str">
+        <f>VLOOKUP(C36,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>493</v>
       </c>
@@ -40778,8 +41121,16 @@
       <c r="E37" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F37" t="str">
+        <f>VLOOKUP(C37,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G37" t="str">
+        <f>VLOOKUP(C37,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>494</v>
       </c>
@@ -40795,8 +41146,16 @@
       <c r="E38" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F38" t="str">
+        <f>VLOOKUP(C38,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G38" t="str">
+        <f>VLOOKUP(C38,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>495</v>
       </c>
@@ -40812,8 +41171,16 @@
       <c r="E39" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F39" t="str">
+        <f>VLOOKUP(C39,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G39" t="str">
+        <f>VLOOKUP(C39,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>496</v>
       </c>
@@ -40829,8 +41196,16 @@
       <c r="E40" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F40" t="str">
+        <f>VLOOKUP(C40,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G40" t="str">
+        <f>VLOOKUP(C40,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>498</v>
       </c>
@@ -40846,8 +41221,16 @@
       <c r="E41" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F41" t="str">
+        <f>VLOOKUP(C41,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G41" t="str">
+        <f>VLOOKUP(C41,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>499</v>
       </c>
@@ -40863,8 +41246,16 @@
       <c r="E42" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F42" t="str">
+        <f>VLOOKUP(C42,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G42" t="str">
+        <f>VLOOKUP(C42,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>500</v>
       </c>
@@ -40880,8 +41271,16 @@
       <c r="E43" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F43" t="str">
+        <f>VLOOKUP(C43,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G43" t="str">
+        <f>VLOOKUP(C43,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>502</v>
       </c>
@@ -40897,8 +41296,16 @@
       <c r="E44" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F44" t="str">
+        <f>VLOOKUP(C44,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G44" t="str">
+        <f>VLOOKUP(C44,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>503</v>
       </c>
@@ -40914,8 +41321,16 @@
       <c r="E45" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F45" t="str">
+        <f>VLOOKUP(C45,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G45" t="str">
+        <f>VLOOKUP(C45,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>504</v>
       </c>
@@ -40931,8 +41346,16 @@
       <c r="E46" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F46" t="str">
+        <f>VLOOKUP(C46,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G46" t="str">
+        <f>VLOOKUP(C46,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>506</v>
       </c>
@@ -40948,8 +41371,16 @@
       <c r="E47" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F47" t="str">
+        <f>VLOOKUP(C47,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G47" t="str">
+        <f>VLOOKUP(C47,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>508</v>
       </c>
@@ -40965,8 +41396,16 @@
       <c r="E48" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F48" t="str">
+        <f>VLOOKUP(C48,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G48" t="str">
+        <f>VLOOKUP(C48,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>509</v>
       </c>
@@ -40982,8 +41421,16 @@
       <c r="E49" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F49" t="str">
+        <f>VLOOKUP(C49,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G49" t="str">
+        <f>VLOOKUP(C49,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>510</v>
       </c>
@@ -40999,8 +41446,16 @@
       <c r="E50" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F50" t="str">
+        <f>VLOOKUP(C50,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G50" t="str">
+        <f>VLOOKUP(C50,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>512</v>
       </c>
@@ -41016,8 +41471,16 @@
       <c r="E51" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F51" t="str">
+        <f>VLOOKUP(C51,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G51" t="str">
+        <f>VLOOKUP(C51,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>513</v>
       </c>
@@ -41033,8 +41496,16 @@
       <c r="E52" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F52" t="str">
+        <f>VLOOKUP(C52,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G52" t="str">
+        <f>VLOOKUP(C52,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>515</v>
       </c>
@@ -41050,8 +41521,16 @@
       <c r="E53" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F53" t="str">
+        <f>VLOOKUP(C53,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G53" t="str">
+        <f>VLOOKUP(C53,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>516</v>
       </c>
@@ -41067,8 +41546,16 @@
       <c r="E54" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F54" t="str">
+        <f>VLOOKUP(C54,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G54" t="str">
+        <f>VLOOKUP(C54,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>518</v>
       </c>
@@ -41084,8 +41571,16 @@
       <c r="E55" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F55" t="str">
+        <f>VLOOKUP(C55,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G55" t="str">
+        <f>VLOOKUP(C55,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>520</v>
       </c>
@@ -41101,8 +41596,16 @@
       <c r="E56" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F56" t="str">
+        <f>VLOOKUP(C56,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G56" t="str">
+        <f>VLOOKUP(C56,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>522</v>
       </c>
@@ -41118,8 +41621,16 @@
       <c r="E57" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F57" t="str">
+        <f>VLOOKUP(C57,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G57" t="str">
+        <f>VLOOKUP(C57,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>524</v>
       </c>
@@ -41135,8 +41646,16 @@
       <c r="E58" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F58" t="str">
+        <f>VLOOKUP(C58,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G58" t="str">
+        <f>VLOOKUP(C58,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>525</v>
       </c>
@@ -41152,8 +41671,16 @@
       <c r="E59" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F59" t="str">
+        <f>VLOOKUP(C59,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G59" t="str">
+        <f>VLOOKUP(C59,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>526</v>
       </c>
@@ -41169,8 +41696,16 @@
       <c r="E60" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F60" t="str">
+        <f>VLOOKUP(C60,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G60" t="str">
+        <f>VLOOKUP(C60,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>527</v>
       </c>
@@ -41186,8 +41721,16 @@
       <c r="E61" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F61" t="str">
+        <f>VLOOKUP(C61,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G61" t="str">
+        <f>VLOOKUP(C61,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>529</v>
       </c>
@@ -41203,8 +41746,16 @@
       <c r="E62" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F62" t="str">
+        <f>VLOOKUP(C62,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G62" t="str">
+        <f>VLOOKUP(C62,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>531</v>
       </c>
@@ -41220,8 +41771,16 @@
       <c r="E63" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F63" t="str">
+        <f>VLOOKUP(C63,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G63" t="str">
+        <f>VLOOKUP(C63,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>533</v>
       </c>
@@ -41237,8 +41796,16 @@
       <c r="E64" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F64" t="str">
+        <f>VLOOKUP(C64,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G64" t="str">
+        <f>VLOOKUP(C64,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>534</v>
       </c>
@@ -41254,8 +41821,16 @@
       <c r="E65" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F65" t="str">
+        <f>VLOOKUP(C65,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G65" t="str">
+        <f>VLOOKUP(C65,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>536</v>
       </c>
@@ -41271,8 +41846,16 @@
       <c r="E66" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F66" t="str">
+        <f>VLOOKUP(C66,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G66" t="str">
+        <f>VLOOKUP(C66,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>538</v>
       </c>
@@ -41288,8 +41871,16 @@
       <c r="E67" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F67" t="str">
+        <f>VLOOKUP(C67,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G67" t="str">
+        <f>VLOOKUP(C67,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>540</v>
       </c>
@@ -41305,8 +41896,16 @@
       <c r="E68" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F68" t="str">
+        <f>VLOOKUP(C68,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G68" t="str">
+        <f>VLOOKUP(C68,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>541</v>
       </c>
@@ -41322,8 +41921,16 @@
       <c r="E69" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F69" t="str">
+        <f>VLOOKUP(C69,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G69" t="str">
+        <f>VLOOKUP(C69,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>542</v>
       </c>
@@ -41339,8 +41946,16 @@
       <c r="E70" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F70" t="str">
+        <f>VLOOKUP(C70,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G70" t="str">
+        <f>VLOOKUP(C70,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>544</v>
       </c>
@@ -41356,8 +41971,16 @@
       <c r="E71" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F71" t="str">
+        <f>VLOOKUP(C71,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G71" t="str">
+        <f>VLOOKUP(C71,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>545</v>
       </c>
@@ -41373,8 +41996,16 @@
       <c r="E72" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F72" t="str">
+        <f>VLOOKUP(C72,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G72" t="str">
+        <f>VLOOKUP(C72,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>547</v>
       </c>
@@ -41390,8 +42021,16 @@
       <c r="E73" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F73" t="str">
+        <f>VLOOKUP(C73,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G73" t="str">
+        <f>VLOOKUP(C73,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>549</v>
       </c>
@@ -41407,8 +42046,16 @@
       <c r="E74" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F74" t="str">
+        <f>VLOOKUP(C74,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G74" t="str">
+        <f>VLOOKUP(C74,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>551</v>
       </c>
@@ -41424,8 +42071,16 @@
       <c r="E75" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F75" t="str">
+        <f>VLOOKUP(C75,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G75" t="str">
+        <f>VLOOKUP(C75,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>552</v>
       </c>
@@ -41441,8 +42096,16 @@
       <c r="E76" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F76" t="str">
+        <f>VLOOKUP(C76,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G76" t="str">
+        <f>VLOOKUP(C76,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>554</v>
       </c>
@@ -41458,8 +42121,16 @@
       <c r="E77" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F77" t="str">
+        <f>VLOOKUP(C77,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G77" t="str">
+        <f>VLOOKUP(C77,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>556</v>
       </c>
@@ -41475,8 +42146,16 @@
       <c r="E78" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F78" t="str">
+        <f>VLOOKUP(C78,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G78" t="str">
+        <f>VLOOKUP(C78,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>557</v>
       </c>
@@ -41492,8 +42171,16 @@
       <c r="E79" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F79" t="str">
+        <f>VLOOKUP(C79,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G79" t="str">
+        <f>VLOOKUP(C79,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>558</v>
       </c>
@@ -41509,8 +42196,16 @@
       <c r="E80" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F80" t="str">
+        <f>VLOOKUP(C80,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G80" t="str">
+        <f>VLOOKUP(C80,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>560</v>
       </c>
@@ -41526,8 +42221,16 @@
       <c r="E81" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F81" t="str">
+        <f>VLOOKUP(C81,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G81" t="str">
+        <f>VLOOKUP(C81,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>561</v>
       </c>
@@ -41543,8 +42246,16 @@
       <c r="E82" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F82" t="str">
+        <f>VLOOKUP(C82,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="G82" t="str">
+        <f>VLOOKUP(C82,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Manufacturas</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>563</v>
       </c>
@@ -41560,8 +42271,16 @@
       <c r="E83" t="s">
         <v>1454</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F83" t="str">
+        <f>VLOOKUP(C83,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>D-E</v>
+      </c>
+      <c r="G83" t="str">
+        <f>VLOOKUP(C83,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Servicios básicos</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>565</v>
       </c>
@@ -41577,8 +42296,16 @@
       <c r="E84" t="s">
         <v>1455</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F84" t="str">
+        <f>VLOOKUP(C84,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>D-E</v>
+      </c>
+      <c r="G84" t="str">
+        <f>VLOOKUP(C84,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Servicios básicos</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>567</v>
       </c>
@@ -41594,8 +42321,16 @@
       <c r="E85" t="s">
         <v>1455</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F85" t="str">
+        <f>VLOOKUP(C85,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>D-E</v>
+      </c>
+      <c r="G85" t="str">
+        <f>VLOOKUP(C85,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Servicios básicos</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>568</v>
       </c>
@@ -41611,8 +42346,16 @@
       <c r="E86" t="s">
         <v>1419</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F86" t="str">
+        <f>VLOOKUP(C86,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>F</v>
+      </c>
+      <c r="G86" t="str">
+        <f>VLOOKUP(C86,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Construcción</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>570</v>
       </c>
@@ -41628,8 +42371,16 @@
       <c r="E87" t="s">
         <v>1419</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F87" t="str">
+        <f>VLOOKUP(C87,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>F</v>
+      </c>
+      <c r="G87" t="str">
+        <f>VLOOKUP(C87,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Construcción</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>571</v>
       </c>
@@ -41645,8 +42396,16 @@
       <c r="E88" t="s">
         <v>1419</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F88" t="str">
+        <f>VLOOKUP(C88,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>F</v>
+      </c>
+      <c r="G88" t="str">
+        <f>VLOOKUP(C88,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Construcción</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>572</v>
       </c>
@@ -41662,8 +42421,16 @@
       <c r="E89" t="s">
         <v>1456</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F89" t="str">
+        <f>VLOOKUP(C89,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>G</v>
+      </c>
+      <c r="G89" t="str">
+        <f>VLOOKUP(C89,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Comercio</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>573</v>
       </c>
@@ -41679,8 +42446,16 @@
       <c r="E90" t="s">
         <v>1456</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F90" t="str">
+        <f>VLOOKUP(C90,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>G</v>
+      </c>
+      <c r="G90" t="str">
+        <f>VLOOKUP(C90,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Comercio</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>574</v>
       </c>
@@ -41696,8 +42471,16 @@
       <c r="E91" t="s">
         <v>1423</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F91" t="str">
+        <f>VLOOKUP(C91,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>H</v>
+      </c>
+      <c r="G91" t="str">
+        <f>VLOOKUP(C91,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Transporte</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>575</v>
       </c>
@@ -41713,8 +42496,16 @@
       <c r="E92" t="s">
         <v>1423</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F92" t="str">
+        <f>VLOOKUP(C92,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>H</v>
+      </c>
+      <c r="G92" t="str">
+        <f>VLOOKUP(C92,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Transporte</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>576</v>
       </c>
@@ -41730,8 +42521,16 @@
       <c r="E93" t="s">
         <v>1423</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F93" t="str">
+        <f>VLOOKUP(C93,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>H</v>
+      </c>
+      <c r="G93" t="str">
+        <f>VLOOKUP(C93,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Transporte</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>577</v>
       </c>
@@ -41747,8 +42546,16 @@
       <c r="E94" t="s">
         <v>1425</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F94" t="str">
+        <f>VLOOKUP(C94,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>I-S</v>
+      </c>
+      <c r="G94" t="str">
+        <f>VLOOKUP(C94,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Otros servicios</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>578</v>
       </c>
@@ -41764,8 +42571,16 @@
       <c r="E95" t="s">
         <v>1457</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F95" t="str">
+        <f>VLOOKUP(C95,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>I-S</v>
+      </c>
+      <c r="G95" t="str">
+        <f>VLOOKUP(C95,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Otros servicios</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>579</v>
       </c>
@@ -41781,8 +42596,16 @@
       <c r="E96" t="s">
         <v>1457</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F96" t="str">
+        <f>VLOOKUP(C96,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>I-S</v>
+      </c>
+      <c r="G96" t="str">
+        <f>VLOOKUP(C96,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Otros servicios</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>580</v>
       </c>
@@ -41798,8 +42621,16 @@
       <c r="E97" t="s">
         <v>1425</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F97" t="str">
+        <f>VLOOKUP(C97,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>I-S</v>
+      </c>
+      <c r="G97" t="str">
+        <f>VLOOKUP(C97,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Otros servicios</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>581</v>
       </c>
@@ -41815,8 +42646,16 @@
       <c r="E98" t="s">
         <v>1425</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F98" t="str">
+        <f>VLOOKUP(C98,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>I-S</v>
+      </c>
+      <c r="G98" t="str">
+        <f>VLOOKUP(C98,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Otros servicios</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>582</v>
       </c>
@@ -41832,8 +42671,16 @@
       <c r="E99" t="s">
         <v>1425</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F99" t="str">
+        <f>VLOOKUP(C99,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>I-S</v>
+      </c>
+      <c r="G99" t="str">
+        <f>VLOOKUP(C99,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Otros servicios</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>583</v>
       </c>
@@ -41849,8 +42696,16 @@
       <c r="E100" t="s">
         <v>1425</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F100" t="str">
+        <f>VLOOKUP(C100,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>I-S</v>
+      </c>
+      <c r="G100" t="str">
+        <f>VLOOKUP(C100,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Otros servicios</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>584</v>
       </c>
@@ -41866,8 +42721,16 @@
       <c r="E101" t="s">
         <v>1458</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F101" t="str">
+        <f>VLOOKUP(C101,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>I-S</v>
+      </c>
+      <c r="G101" t="str">
+        <f>VLOOKUP(C101,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Otros servicios</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>585</v>
       </c>
@@ -41883,8 +42746,16 @@
       <c r="E102" t="s">
         <v>1458</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F102" t="str">
+        <f>VLOOKUP(C102,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>I-S</v>
+      </c>
+      <c r="G102" t="str">
+        <f>VLOOKUP(C102,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Otros servicios</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>586</v>
       </c>
@@ -41900,8 +42771,16 @@
       <c r="E103" t="s">
         <v>1459</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F103" t="str">
+        <f>VLOOKUP(C103,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>I-S</v>
+      </c>
+      <c r="G103" t="str">
+        <f>VLOOKUP(C103,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Otros servicios</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>587</v>
       </c>
@@ -41917,8 +42796,16 @@
       <c r="E104" t="s">
         <v>1459</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F104" t="str">
+        <f>VLOOKUP(C104,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>I-S</v>
+      </c>
+      <c r="G104" t="str">
+        <f>VLOOKUP(C104,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Otros servicios</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>588</v>
       </c>
@@ -41934,8 +42821,16 @@
       <c r="E105" t="s">
         <v>1459</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F105" t="str">
+        <f>VLOOKUP(C105,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>I-S</v>
+      </c>
+      <c r="G105" t="str">
+        <f>VLOOKUP(C105,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Otros servicios</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>589</v>
       </c>
@@ -41951,8 +42846,16 @@
       <c r="E106" t="s">
         <v>1460</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F106" t="str">
+        <f>VLOOKUP(C106,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>I-S</v>
+      </c>
+      <c r="G106" t="str">
+        <f>VLOOKUP(C106,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Otros servicios</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>591</v>
       </c>
@@ -41968,8 +42871,16 @@
       <c r="E107" t="s">
         <v>1460</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F107" t="str">
+        <f>VLOOKUP(C107,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>I-S</v>
+      </c>
+      <c r="G107" t="str">
+        <f>VLOOKUP(C107,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Otros servicios</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>592</v>
       </c>
@@ -41985,8 +42896,16 @@
       <c r="E108" t="s">
         <v>1460</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F108" t="str">
+        <f>VLOOKUP(C108,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>I-S</v>
+      </c>
+      <c r="G108" t="str">
+        <f>VLOOKUP(C108,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Otros servicios</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>692</v>
       </c>
@@ -42002,8 +42921,16 @@
       <c r="E109" t="s">
         <v>1460</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F109" t="str">
+        <f>VLOOKUP(C109,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>I-S</v>
+      </c>
+      <c r="G109" t="str">
+        <f>VLOOKUP(C109,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Otros servicios</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>593</v>
       </c>
@@ -42019,8 +42946,16 @@
       <c r="E110" t="s">
         <v>1460</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F110" t="str">
+        <f>VLOOKUP(C110,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>I-S</v>
+      </c>
+      <c r="G110" t="str">
+        <f>VLOOKUP(C110,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Otros servicios</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>594</v>
       </c>
@@ -42036,8 +42971,16 @@
       <c r="E111" t="s">
         <v>1460</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F111" t="str">
+        <f>VLOOKUP(C111,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>I-S</v>
+      </c>
+      <c r="G111" t="str">
+        <f>VLOOKUP(C111,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Otros servicios</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>595</v>
       </c>
@@ -42053,8 +42996,16 @@
       <c r="E112" t="s">
         <v>1461</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F112" t="str">
+        <f>VLOOKUP(C112,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>I-S</v>
+      </c>
+      <c r="G112" t="str">
+        <f>VLOOKUP(C112,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Otros servicios</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>596</v>
       </c>
@@ -42070,8 +43021,16 @@
       <c r="E113" t="s">
         <v>1461</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F113" t="str">
+        <f>VLOOKUP(C113,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>I-S</v>
+      </c>
+      <c r="G113" t="str">
+        <f>VLOOKUP(C113,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Otros servicios</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>597</v>
       </c>
@@ -42087,8 +43046,16 @@
       <c r="E114" t="s">
         <v>1461</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F114" t="str">
+        <f>VLOOKUP(C114,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>I-S</v>
+      </c>
+      <c r="G114" t="str">
+        <f>VLOOKUP(C114,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Otros servicios</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>598</v>
       </c>
@@ -42104,8 +43071,16 @@
       <c r="E115" t="s">
         <v>1461</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F115" t="str">
+        <f>VLOOKUP(C115,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>I-S</v>
+      </c>
+      <c r="G115" t="str">
+        <f>VLOOKUP(C115,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Otros servicios</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>599</v>
       </c>
@@ -42121,8 +43096,16 @@
       <c r="E116" t="s">
         <v>1461</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F116" t="str">
+        <f>VLOOKUP(C116,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>I-S</v>
+      </c>
+      <c r="G116" t="str">
+        <f>VLOOKUP(C116,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Otros servicios</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>600</v>
       </c>
@@ -42138,8 +43121,16 @@
       <c r="E117" t="s">
         <v>1461</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F117" t="str">
+        <f>VLOOKUP(C117,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>I-S</v>
+      </c>
+      <c r="G117" t="str">
+        <f>VLOOKUP(C117,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Otros servicios</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>601</v>
       </c>
@@ -42155,8 +43146,16 @@
       <c r="E118" t="s">
         <v>1461</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F118" t="str">
+        <f>VLOOKUP(C118,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>I-S</v>
+      </c>
+      <c r="G118" t="str">
+        <f>VLOOKUP(C118,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Otros servicios</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>602</v>
       </c>
@@ -42172,8 +43171,16 @@
       <c r="E119" t="s">
         <v>1461</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F119" t="str">
+        <f>VLOOKUP(C119,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>I-S</v>
+      </c>
+      <c r="G119" t="str">
+        <f>VLOOKUP(C119,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Otros servicios</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>693</v>
       </c>
@@ -42189,8 +43196,16 @@
       <c r="E120" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F120" t="str">
+        <f>VLOOKUP(C120,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>I-S</v>
+      </c>
+      <c r="G120" t="str">
+        <f>VLOOKUP(C120,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Otros servicios</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>694</v>
       </c>
@@ -42206,8 +43221,16 @@
       <c r="E121" t="s">
         <v>1462</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F121" t="str">
+        <f>VLOOKUP(C121,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>I-S</v>
+      </c>
+      <c r="G121" t="str">
+        <f>VLOOKUP(C121,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Otros servicios</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>695</v>
       </c>
@@ -42223,8 +43246,16 @@
       <c r="E122" t="s">
         <v>1462</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F122" t="str">
+        <f>VLOOKUP(C122,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>I-S</v>
+      </c>
+      <c r="G122" t="str">
+        <f>VLOOKUP(C122,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Otros servicios</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>696</v>
       </c>
@@ -42240,8 +43271,16 @@
       <c r="E123" t="s">
         <v>1462</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F123" t="str">
+        <f>VLOOKUP(C123,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>I-S</v>
+      </c>
+      <c r="G123" t="str">
+        <f>VLOOKUP(C123,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Otros servicios</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>697</v>
       </c>
@@ -42257,8 +43296,16 @@
       <c r="E124" t="s">
         <v>1462</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F124" t="str">
+        <f>VLOOKUP(C124,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>I-S</v>
+      </c>
+      <c r="G124" t="str">
+        <f>VLOOKUP(C124,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Otros servicios</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>698</v>
       </c>
@@ -42274,8 +43321,16 @@
       <c r="E125" t="s">
         <v>1463</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F125" t="str">
+        <f>VLOOKUP(C125,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>I-S</v>
+      </c>
+      <c r="G125" t="str">
+        <f>VLOOKUP(C125,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Otros servicios</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>699</v>
       </c>
@@ -42291,8 +43346,16 @@
       <c r="E126" t="s">
         <v>1463</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F126" t="str">
+        <f>VLOOKUP(C126,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>I-S</v>
+      </c>
+      <c r="G126" t="str">
+        <f>VLOOKUP(C126,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Otros servicios</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>603</v>
       </c>
@@ -42308,8 +43371,16 @@
       <c r="E127" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F127" t="str">
+        <f>VLOOKUP(C127,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>I-S</v>
+      </c>
+      <c r="G127" t="str">
+        <f>VLOOKUP(C127,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Otros servicios</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>604</v>
       </c>
@@ -42325,8 +43396,16 @@
       <c r="E128" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F128" t="str">
+        <f>VLOOKUP(C128,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>I-S</v>
+      </c>
+      <c r="G128" t="str">
+        <f>VLOOKUP(C128,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Otros servicios</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>605</v>
       </c>
@@ -42342,8 +43421,16 @@
       <c r="E129" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F129" t="str">
+        <f>VLOOKUP(C129,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>I-S</v>
+      </c>
+      <c r="G129" t="str">
+        <f>VLOOKUP(C129,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Otros servicios</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>606</v>
       </c>
@@ -42359,8 +43446,16 @@
       <c r="E130" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F130" t="str">
+        <f>VLOOKUP(C130,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>I-S</v>
+      </c>
+      <c r="G130" t="str">
+        <f>VLOOKUP(C130,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Otros servicios</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>607</v>
       </c>
@@ -42376,8 +43471,16 @@
       <c r="E131" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F131" t="str">
+        <f>VLOOKUP(C131,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>I-S</v>
+      </c>
+      <c r="G131" t="str">
+        <f>VLOOKUP(C131,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Otros servicios</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>608</v>
       </c>
@@ -42393,8 +43496,16 @@
       <c r="E132" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F132" t="str">
+        <f>VLOOKUP(C132,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>I-S</v>
+      </c>
+      <c r="G132" t="str">
+        <f>VLOOKUP(C132,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Otros servicios</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>609</v>
       </c>
@@ -42410,8 +43521,16 @@
       <c r="E133" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F133" t="str">
+        <f>VLOOKUP(C133,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>I-S</v>
+      </c>
+      <c r="G133" t="str">
+        <f>VLOOKUP(C133,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>Otros servicios</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>1378</v>
       </c>
@@ -42426,6 +43545,14 @@
       </c>
       <c r="E134" t="s">
         <v>1382</v>
+      </c>
+      <c r="F134" t="str">
+        <f>VLOOKUP(C134,ciiu!$A$2:$E$22,4,FALSE)</f>
+        <v>Z</v>
+      </c>
+      <c r="G134" t="str">
+        <f>VLOOKUP(C134,ciiu!$A$2:$E$22,5,FALSE)</f>
+        <v>No determinada</v>
       </c>
     </row>
   </sheetData>
@@ -42435,10 +43562,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64B7F33-8442-4A7B-9699-879DCF816A72}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -42446,7 +43573,7 @@
     <col min="2" max="2" width="23.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1448</v>
       </c>
@@ -42456,8 +43583,14 @@
       <c r="C1" t="s">
         <v>1450</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1410</v>
       </c>
@@ -42467,8 +43600,14 @@
       <c r="C2" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D2" t="s">
+        <v>1410</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1412</v>
       </c>
@@ -42478,8 +43617,14 @@
       <c r="C3" t="s">
         <v>1452</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D3" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>1414</v>
       </c>
@@ -42489,8 +43634,14 @@
       <c r="C4" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D4" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>1416</v>
       </c>
@@ -42500,8 +43651,14 @@
       <c r="C5" t="s">
         <v>1454</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D5" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>1388</v>
       </c>
@@ -42511,8 +43668,14 @@
       <c r="C6" t="s">
         <v>1455</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D6" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>1418</v>
       </c>
@@ -42522,8 +43685,14 @@
       <c r="C7" t="s">
         <v>1419</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D7" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>1420</v>
       </c>
@@ -42533,8 +43702,14 @@
       <c r="C8" t="s">
         <v>1456</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D8" t="s">
+        <v>1420</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>1422</v>
       </c>
@@ -42544,8 +43719,14 @@
       <c r="C9" t="s">
         <v>1423</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D9" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>1424</v>
       </c>
@@ -42555,8 +43736,14 @@
       <c r="C10" t="s">
         <v>1425</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D10" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E10" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>1426</v>
       </c>
@@ -42566,8 +43753,14 @@
       <c r="C11" t="s">
         <v>1457</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D11" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>1428</v>
       </c>
@@ -42577,8 +43770,14 @@
       <c r="C12" t="s">
         <v>1458</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D12" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E12" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>1430</v>
       </c>
@@ -42588,8 +43787,14 @@
       <c r="C13" t="s">
         <v>1459</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D13" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E13" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>1432</v>
       </c>
@@ -42599,8 +43804,14 @@
       <c r="C14" t="s">
         <v>1460</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D14" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E14" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>1434</v>
       </c>
@@ -42610,8 +43821,14 @@
       <c r="C15" t="s">
         <v>1461</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D15" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E15" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>1436</v>
       </c>
@@ -42621,8 +43838,14 @@
       <c r="C16" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D16" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E16" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>1437</v>
       </c>
@@ -42632,8 +43855,14 @@
       <c r="C17" t="s">
         <v>1462</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D17" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E17" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>1439</v>
       </c>
@@ -42643,8 +43872,14 @@
       <c r="C18" t="s">
         <v>1463</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D18" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E18" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>1441</v>
       </c>
@@ -42654,8 +43889,14 @@
       <c r="C19" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D19" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E19" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>1443</v>
       </c>
@@ -42665,8 +43906,14 @@
       <c r="C20" t="s">
         <v>1464</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D20" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E20" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>1445</v>
       </c>
@@ -42676,8 +43923,14 @@
       <c r="C21" t="s">
         <v>1465</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D21" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E21" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>1449</v>
       </c>
@@ -42686,6 +43939,12 @@
       </c>
       <c r="C22" t="s">
         <v>1382</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1480</v>
       </c>
     </row>
   </sheetData>
@@ -42697,8 +43956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D1C4B1-99FA-4847-8C6B-549B844D73AF}">
   <dimension ref="A1:C221"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="B222" sqref="B222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -44273,7 +45532,7 @@
         <v>282</v>
       </c>
       <c r="B143" t="s">
-        <v>283</v>
+        <v>1476</v>
       </c>
       <c r="C143" s="1">
         <v>3</v>
@@ -45131,7 +46390,7 @@
         <v>1403</v>
       </c>
       <c r="B221" t="s">
-        <v>1408</v>
+        <v>1477</v>
       </c>
       <c r="C221" s="1">
         <v>2</v>
@@ -45245,10 +46504,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE949D2-F99D-4CAF-85D0-EEE8FDE4F5CB}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -45333,6 +46592,14 @@
         <v>1472</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1475</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
